--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>567994.0217053014</v>
+        <v>570113.2779743039</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18805832.78348309</v>
+        <v>18805832.7834831</v>
       </c>
     </row>
     <row r="9">
@@ -659,23 +659,23 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>143.9355595733343</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>143.9355595733343</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>126.7784408721928</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="T2" t="n">
-        <v>143.9355595733343</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>143.9355595733343</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,76 +735,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>126.7784408721928</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>137.3435171632106</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>100.1578341526431</v>
-      </c>
-      <c r="S3" t="n">
-        <v>33.21264912967337</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
     </row>
     <row r="4">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>143.9355595733343</v>
+        <v>126.7784408721928</v>
       </c>
       <c r="C5" t="n">
         <v>143.9355595733343</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>126.7784408721928</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,52 +978,52 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>126.7784408721928</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>68.33533203135769</v>
+      </c>
+      <c r="H6" t="n">
+        <v>112.2354442364965</v>
+      </c>
+      <c r="I6" t="n">
+        <v>89.39663285141508</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="F6" t="n">
-        <v>143.9355595733343</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>126.7784408721928</v>
+      </c>
+      <c r="G8" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="C8" t="n">
+      <c r="H8" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>126.7784408721928</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,76 +1209,76 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="C9" t="n">
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>112.2354442364965</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13.79640530943847</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="D9" t="n">
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>126.7784408721928</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,65 +1370,65 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="F11" t="n">
+      <c r="U11" t="n">
+        <v>143.9355595733343</v>
+      </c>
+      <c r="V11" t="n">
         <v>126.7784408721928</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>126.7784408721928</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="T12" t="n">
-        <v>118.1153843262482</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
     </row>
     <row r="13">
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>15.89950953364058</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.14804664098567</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1619,49 +1619,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>126.7784408721928</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>143.9355595733343</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>77.90582967359012</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>143.9355595733343</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2940166796957</v>
+        <v>126.7784408721928</v>
       </c>
       <c r="H15" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>15.89950953364058</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.50289846948222</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V17" t="n">
         <v>263.2420339516666</v>
@@ -1907,7 +1907,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>243.7673658373624</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>94.89462762832535</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>105.3830043755882</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="V19" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="C20" t="n">
-        <v>263.2420339516666</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T20" t="n">
-        <v>144.1361559919117</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>184.6873296566785</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2211,19 +2211,19 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T21" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>148.2672088524888</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>43.30780621874255</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C23" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>81.2845965670106</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8635835046277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>19.71873380255421</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>8.29854234855058</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>159.8350691069748</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="C26" t="n">
-        <v>231.8635835046278</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>263.2420339516666</v>
+        <v>227.7664834517758</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>36.0158491400325</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>111.1907825699907</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T27" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>11.21959608876251</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2789,20 +2789,20 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C29" t="n">
-        <v>144.1361559919116</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
@@ -2837,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>65.5028984694821</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,19 +2874,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>77.525258218582</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>79.90111138983679</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,16 +3041,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>227.7664834517757</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>87.80598074015786</v>
       </c>
       <c r="Y32" t="n">
         <v>263.2420339516666</v>
@@ -3108,7 +3108,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>21.14211623477349</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>171.6504078751461</v>
       </c>
     </row>
     <row r="34">
@@ -3247,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3278,16 +3278,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>16.97940549761034</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>231.863583504628</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X35" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3357,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>72.97900086862829</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>105.4732938017613</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.6870224659892</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>77.14804664098561</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
     </row>
     <row r="38">
@@ -3509,16 +3509,16 @@
         <v>263.2420339516666</v>
       </c>
       <c r="E38" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>87.80598074015778</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S38" t="n">
-        <v>87.80598074015786</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>18.12031639823207</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>105.4732938017611</v>
       </c>
       <c r="U39" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>13.40110646040572</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>11.21959608876251</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,49 +3755,49 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>126.7784408721928</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
+      <c r="V41" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="U41" t="n">
-        <v>143.9355595733343</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>143.9355595733343</v>
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>126.7784408721928</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="D42" t="n">
-        <v>126.7784408721928</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
     </row>
     <row r="43">
@@ -3901,58 +3901,58 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>15.89950953364058</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>126.7784408721928</v>
       </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>143.9355595733343</v>
-      </c>
-      <c r="W44" t="n">
-        <v>143.9355595733343</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4104,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
         <v>126.7784408721928</v>
       </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>143.9355595733343</v>
@@ -4135,67 +4135,67 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>15.89950953364058</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>430.3527841788581</v>
+      </c>
+      <c r="C2" t="n">
+        <v>430.3527841788581</v>
+      </c>
+      <c r="D2" t="n">
+        <v>284.963330064379</v>
+      </c>
+      <c r="E2" t="n">
+        <v>284.963330064379</v>
+      </c>
+      <c r="F2" t="n">
         <v>139.5738759498999</v>
       </c>
-      <c r="C2" t="n">
-        <v>11.51484476586674</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.51484476586674</v>
-      </c>
-      <c r="E2" t="n">
-        <v>11.51484476586674</v>
-      </c>
-      <c r="F2" t="n">
-        <v>11.51484476586674</v>
-      </c>
       <c r="G2" t="n">
-        <v>11.51484476586674</v>
+        <v>139.5738759498999</v>
       </c>
       <c r="H2" t="n">
         <v>11.51484476586674</v>
@@ -4337,13 +4337,13 @@
         <v>257.0260546543901</v>
       </c>
       <c r="M2" t="n">
+        <v>257.0260546543901</v>
+      </c>
+      <c r="N2" t="n">
         <v>399.522258631991</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>542.018462609592</v>
-      </c>
-      <c r="O2" t="n">
-        <v>575.7422382933372</v>
       </c>
       <c r="P2" t="n">
         <v>575.7422382933372</v>
@@ -4355,25 +4355,25 @@
         <v>575.7422382933372</v>
       </c>
       <c r="S2" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="T2" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="U2" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="V2" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="W2" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="X2" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="Y2" t="n">
         <v>430.3527841788581</v>
-      </c>
-      <c r="T2" t="n">
-        <v>284.963330064379</v>
-      </c>
-      <c r="U2" t="n">
-        <v>284.963330064379</v>
-      </c>
-      <c r="V2" t="n">
-        <v>284.963330064379</v>
-      </c>
-      <c r="W2" t="n">
-        <v>139.5738759498999</v>
-      </c>
-      <c r="X2" t="n">
-        <v>139.5738759498999</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>139.5738759498999</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>295.6351242977303</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="C3" t="n">
-        <v>295.6351242977303</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="D3" t="n">
-        <v>150.2456701832512</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="E3" t="n">
-        <v>150.2456701832512</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="F3" t="n">
-        <v>150.2456701832512</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="G3" t="n">
         <v>11.51484476586674</v>
@@ -4419,7 +4419,7 @@
         <v>363.851475802407</v>
       </c>
       <c r="N3" t="n">
-        <v>506.3476797800079</v>
+        <v>363.851475802407</v>
       </c>
       <c r="O3" t="n">
         <v>506.3476797800079</v>
@@ -4431,28 +4431,28 @@
         <v>575.7422382933372</v>
       </c>
       <c r="R3" t="n">
-        <v>474.5727088462229</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="S3" t="n">
-        <v>441.0245784122094</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="T3" t="n">
-        <v>295.6351242977303</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="U3" t="n">
-        <v>295.6351242977303</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="V3" t="n">
-        <v>295.6351242977303</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="W3" t="n">
-        <v>295.6351242977303</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="X3" t="n">
-        <v>295.6351242977303</v>
+        <v>284.963330064379</v>
       </c>
       <c r="Y3" t="n">
-        <v>295.6351242977303</v>
+        <v>139.5738759498999</v>
       </c>
     </row>
     <row r="4">
@@ -4507,7 +4507,7 @@
         <v>146.0471352561375</v>
       </c>
       <c r="Q4" t="n">
-        <v>59.01476833523407</v>
+        <v>146.0471352561375</v>
       </c>
       <c r="R4" t="n">
         <v>11.51484476586674</v>
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>447.683207109304</v>
+      </c>
+      <c r="C5" t="n">
+        <v>302.2937529948249</v>
+      </c>
+      <c r="D5" t="n">
         <v>156.9042988803458</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.51484476586674</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.51484476586674</v>
       </c>
       <c r="E5" t="n">
         <v>11.51484476586674</v>
@@ -4571,16 +4571,16 @@
         <v>114.5298506767891</v>
       </c>
       <c r="L5" t="n">
-        <v>257.0260546543901</v>
+        <v>201.0897750460843</v>
       </c>
       <c r="M5" t="n">
-        <v>399.522258631991</v>
+        <v>201.0897750460843</v>
       </c>
       <c r="N5" t="n">
-        <v>542.018462609592</v>
+        <v>343.5859790236852</v>
       </c>
       <c r="O5" t="n">
-        <v>542.018462609592</v>
+        <v>486.0821830012862</v>
       </c>
       <c r="P5" t="n">
         <v>575.7422382933372</v>
@@ -4604,13 +4604,13 @@
         <v>575.7422382933372</v>
       </c>
       <c r="W5" t="n">
-        <v>447.683207109304</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="X5" t="n">
-        <v>447.683207109304</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="Y5" t="n">
-        <v>302.2937529948249</v>
+        <v>575.7422382933372</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>430.3527841788581</v>
+        <v>284.963330064379</v>
       </c>
       <c r="C6" t="n">
-        <v>430.3527841788581</v>
+        <v>284.963330064379</v>
       </c>
       <c r="D6" t="n">
-        <v>302.2937529948249</v>
+        <v>284.963330064379</v>
       </c>
       <c r="E6" t="n">
-        <v>156.9042988803458</v>
+        <v>284.963330064379</v>
       </c>
       <c r="F6" t="n">
-        <v>11.51484476586674</v>
+        <v>284.963330064379</v>
       </c>
       <c r="G6" t="n">
-        <v>11.51484476586674</v>
+        <v>215.9377421539166</v>
       </c>
       <c r="H6" t="n">
-        <v>11.51484476586674</v>
+        <v>102.568606561496</v>
       </c>
       <c r="I6" t="n">
-        <v>11.51484476586674</v>
+        <v>12.26897741865246</v>
       </c>
       <c r="J6" t="n">
         <v>11.51484476586674</v>
       </c>
       <c r="K6" t="n">
-        <v>11.51484476586674</v>
+        <v>136.8724048237042</v>
       </c>
       <c r="L6" t="n">
-        <v>154.0110487434677</v>
+        <v>136.8724048237042</v>
       </c>
       <c r="M6" t="n">
-        <v>296.5072527210687</v>
+        <v>136.8724048237042</v>
       </c>
       <c r="N6" t="n">
-        <v>363.851475802407</v>
+        <v>221.355271824806</v>
       </c>
       <c r="O6" t="n">
         <v>363.851475802407</v>
@@ -4671,25 +4671,25 @@
         <v>575.7422382933372</v>
       </c>
       <c r="S6" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="T6" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="U6" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="V6" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="W6" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="X6" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="Y6" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788581</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="C7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="D7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="E7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="F7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="G7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="H7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="I7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="J7" t="n">
         <v>11.51484476586674</v>
@@ -4744,31 +4744,31 @@
         <v>146.0471352561375</v>
       </c>
       <c r="Q7" t="n">
-        <v>146.0471352561375</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="R7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="S7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="T7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="U7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="V7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="W7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="X7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.51484476586674</v>
+        <v>59.01476833523407</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="C8" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="D8" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="E8" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="F8" t="n">
+        <v>447.683207109304</v>
+      </c>
+      <c r="G8" t="n">
+        <v>302.2937529948249</v>
+      </c>
+      <c r="H8" t="n">
         <v>156.9042988803458</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11.51484476586674</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11.51484476586674</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11.51484476586674</v>
-      </c>
-      <c r="F8" t="n">
-        <v>11.51484476586674</v>
-      </c>
-      <c r="G8" t="n">
-        <v>11.51484476586674</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11.51484476586674</v>
       </c>
       <c r="I8" t="n">
         <v>11.51484476586674</v>
@@ -4811,13 +4811,13 @@
         <v>257.0260546543901</v>
       </c>
       <c r="M8" t="n">
-        <v>343.5859790236852</v>
+        <v>399.522258631991</v>
       </c>
       <c r="N8" t="n">
-        <v>343.5859790236852</v>
+        <v>542.018462609592</v>
       </c>
       <c r="O8" t="n">
-        <v>486.0821830012862</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="P8" t="n">
         <v>575.7422382933372</v>
@@ -4844,10 +4844,10 @@
         <v>575.7422382933372</v>
       </c>
       <c r="X8" t="n">
-        <v>447.683207109304</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="Y8" t="n">
-        <v>302.2937529948249</v>
+        <v>575.7422382933372</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>302.2937529948249</v>
+        <v>284.963330064379</v>
       </c>
       <c r="C9" t="n">
-        <v>156.9042988803458</v>
+        <v>284.963330064379</v>
       </c>
       <c r="D9" t="n">
-        <v>11.51484476586674</v>
+        <v>284.963330064379</v>
       </c>
       <c r="E9" t="n">
-        <v>11.51484476586674</v>
+        <v>139.5738759498999</v>
       </c>
       <c r="F9" t="n">
-        <v>11.51484476586674</v>
+        <v>139.5738759498999</v>
       </c>
       <c r="G9" t="n">
-        <v>11.51484476586674</v>
+        <v>139.5738759498999</v>
       </c>
       <c r="H9" t="n">
-        <v>11.51484476586674</v>
+        <v>26.2047403574792</v>
       </c>
       <c r="I9" t="n">
-        <v>11.51484476586674</v>
+        <v>12.26897741865246</v>
       </c>
       <c r="J9" t="n">
         <v>11.51484476586674</v>
       </c>
       <c r="K9" t="n">
-        <v>136.8724048237042</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="L9" t="n">
-        <v>279.3686088013051</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="M9" t="n">
-        <v>290.7498303381352</v>
+        <v>78.85906784720504</v>
       </c>
       <c r="N9" t="n">
-        <v>290.7498303381352</v>
+        <v>221.355271824806</v>
       </c>
       <c r="O9" t="n">
-        <v>433.2460343157362</v>
+        <v>363.851475802407</v>
       </c>
       <c r="P9" t="n">
-        <v>575.7422382933372</v>
+        <v>506.3476797800079</v>
       </c>
       <c r="Q9" t="n">
         <v>575.7422382933372</v>
@@ -4920,13 +4920,13 @@
         <v>575.7422382933372</v>
       </c>
       <c r="W9" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="X9" t="n">
-        <v>447.683207109304</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="Y9" t="n">
-        <v>447.683207109304</v>
+        <v>284.963330064379</v>
       </c>
     </row>
     <row r="10">
@@ -4981,7 +4981,7 @@
         <v>146.0471352561375</v>
       </c>
       <c r="Q10" t="n">
-        <v>146.0471352561375</v>
+        <v>59.01476833523407</v>
       </c>
       <c r="R10" t="n">
         <v>11.51484476586674</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="C11" t="n">
-        <v>284.963330064379</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="D11" t="n">
-        <v>284.963330064379</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="E11" t="n">
-        <v>139.5738759498999</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="F11" t="n">
         <v>11.51484476586674</v>
@@ -5045,13 +5045,13 @@
         <v>126.1805630071016</v>
       </c>
       <c r="L11" t="n">
+        <v>126.1805630071016</v>
+      </c>
+      <c r="M11" t="n">
         <v>268.6767669847026</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>411.1729709623036</v>
-      </c>
-      <c r="N11" t="n">
-        <v>472.9112898751846</v>
       </c>
       <c r="O11" t="n">
         <v>472.9112898751846</v>
@@ -5063,28 +5063,28 @@
         <v>575.7422382933372</v>
       </c>
       <c r="R11" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="S11" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="T11" t="n">
-        <v>575.7422382933372</v>
+        <v>284.963330064379</v>
       </c>
       <c r="U11" t="n">
-        <v>575.7422382933372</v>
+        <v>139.5738759498999</v>
       </c>
       <c r="V11" t="n">
-        <v>575.7422382933372</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="W11" t="n">
-        <v>575.7422382933372</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="X11" t="n">
-        <v>575.7422382933372</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="Y11" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>212.9792020038219</v>
+        <v>139.5738759498999</v>
       </c>
       <c r="C12" t="n">
-        <v>212.9792020038219</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="D12" t="n">
-        <v>212.9792020038219</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="E12" t="n">
-        <v>212.9792020038219</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="F12" t="n">
-        <v>212.9792020038219</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="G12" t="n">
-        <v>212.9792020038219</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="H12" t="n">
-        <v>100.0929658651492</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="I12" t="n">
         <v>11.51484476586674</v>
       </c>
       <c r="J12" t="n">
-        <v>15.4056624065655</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="K12" t="n">
-        <v>148.6765325896456</v>
+        <v>144.7857149489469</v>
       </c>
       <c r="L12" t="n">
-        <v>148.6765325896456</v>
+        <v>287.2819189265479</v>
       </c>
       <c r="M12" t="n">
-        <v>291.1727365672466</v>
+        <v>357.5959694361885</v>
       </c>
       <c r="N12" t="n">
         <v>357.5959694361885</v>
@@ -5142,28 +5142,28 @@
         <v>575.7422382933372</v>
       </c>
       <c r="R12" t="n">
-        <v>477.6771251347134</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="S12" t="n">
-        <v>332.2876710202343</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="T12" t="n">
-        <v>212.9792020038219</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="U12" t="n">
-        <v>212.9792020038219</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="V12" t="n">
-        <v>212.9792020038219</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="W12" t="n">
-        <v>212.9792020038219</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="X12" t="n">
-        <v>212.9792020038219</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="Y12" t="n">
-        <v>212.9792020038219</v>
+        <v>284.963330064379</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="C13" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="D13" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="E13" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="F13" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="G13" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="H13" t="n">
-        <v>27.57495540590773</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="I13" t="n">
         <v>11.51484476586674</v>
@@ -5218,31 +5218,31 @@
         <v>172.9644095203868</v>
       </c>
       <c r="Q13" t="n">
-        <v>172.9644095203868</v>
+        <v>89.44216460524621</v>
       </c>
       <c r="R13" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="S13" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="T13" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="U13" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="V13" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="W13" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="X13" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="C14" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="D14" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="E14" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="F14" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="G14" t="n">
-        <v>284.963330064379</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="H14" t="n">
-        <v>139.5738759498999</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="I14" t="n">
         <v>11.51484476586674</v>
@@ -5279,16 +5279,16 @@
         <v>11.51484476586674</v>
       </c>
       <c r="K14" t="n">
-        <v>126.1805630071016</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="L14" t="n">
-        <v>268.6767669847026</v>
+        <v>154.0110487434677</v>
       </c>
       <c r="M14" t="n">
-        <v>268.6767669847026</v>
+        <v>296.5072527210687</v>
       </c>
       <c r="N14" t="n">
-        <v>330.4150858975836</v>
+        <v>439.0034566986697</v>
       </c>
       <c r="O14" t="n">
         <v>472.9112898751846</v>
@@ -5300,28 +5300,28 @@
         <v>575.7422382933372</v>
       </c>
       <c r="R14" t="n">
-        <v>575.7422382933372</v>
+        <v>447.683207109304</v>
       </c>
       <c r="S14" t="n">
-        <v>430.3527841788581</v>
+        <v>302.2937529948249</v>
       </c>
       <c r="T14" t="n">
-        <v>430.3527841788581</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="U14" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="V14" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="W14" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="X14" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="Y14" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>575.7422382933372</v>
+        <v>284.963330064379</v>
       </c>
       <c r="C15" t="n">
-        <v>575.7422382933372</v>
+        <v>284.963330064379</v>
       </c>
       <c r="D15" t="n">
-        <v>575.7422382933372</v>
+        <v>284.963330064379</v>
       </c>
       <c r="E15" t="n">
-        <v>497.0494810472866</v>
+        <v>284.963330064379</v>
       </c>
       <c r="F15" t="n">
-        <v>351.6600269328075</v>
+        <v>139.5738759498999</v>
       </c>
       <c r="G15" t="n">
-        <v>212.9792020038219</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="H15" t="n">
-        <v>100.0929658651492</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="I15" t="n">
         <v>11.51484476586674</v>
@@ -5358,22 +5358,22 @@
         <v>15.4056624065655</v>
       </c>
       <c r="K15" t="n">
-        <v>72.60356148098657</v>
+        <v>148.6765325896456</v>
       </c>
       <c r="L15" t="n">
-        <v>215.0997654585875</v>
+        <v>291.1727365672466</v>
       </c>
       <c r="M15" t="n">
-        <v>357.5959694361885</v>
+        <v>433.6689405448476</v>
       </c>
       <c r="N15" t="n">
-        <v>357.5959694361885</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="O15" t="n">
-        <v>357.5959694361885</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="P15" t="n">
-        <v>500.0921734137895</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="Q15" t="n">
         <v>575.7422382933372</v>
@@ -5394,13 +5394,13 @@
         <v>575.7422382933372</v>
       </c>
       <c r="W15" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="X15" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788581</v>
       </c>
       <c r="Y15" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788581</v>
       </c>
     </row>
     <row r="16">
@@ -5428,10 +5428,10 @@
         <v>172.9644095203868</v>
       </c>
       <c r="H16" t="n">
+        <v>172.9644095203868</v>
+      </c>
+      <c r="I16" t="n">
         <v>27.57495540590773</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11.51484476586674</v>
       </c>
       <c r="J16" t="n">
         <v>11.51484476586674</v>
@@ -5516,16 +5516,16 @@
         <v>21.05936271613333</v>
       </c>
       <c r="K17" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L17" t="n">
-        <v>330.2546714142361</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M17" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N17" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O17" t="n">
         <v>950.1371873885138</v>
@@ -5537,22 +5537,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R17" t="n">
-        <v>986.8035918980985</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S17" t="n">
-        <v>777.8017144234391</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T17" t="n">
-        <v>552.8614515073789</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U17" t="n">
-        <v>552.8614515073789</v>
+        <v>799.0911139693611</v>
       </c>
       <c r="V17" t="n">
-        <v>286.9604071117561</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="W17" t="n">
-        <v>21.05936271613333</v>
+        <v>267.2890251781155</v>
       </c>
       <c r="X17" t="n">
         <v>21.05936271613333</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>884.7527987865983</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C18" t="n">
-        <v>710.2997695054713</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D18" t="n">
-        <v>561.3653598442201</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E18" t="n">
-        <v>402.1279048387646</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F18" t="n">
-        <v>255.5933468656495</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G18" t="n">
-        <v>116.912521936664</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H18" t="n">
         <v>21.05936271613333</v>
@@ -5598,19 +5598,19 @@
         <v>24.95018035683209</v>
       </c>
       <c r="L18" t="n">
-        <v>24.95018035683209</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="M18" t="n">
-        <v>264.2940185443782</v>
+        <v>526.1633218638444</v>
       </c>
       <c r="N18" t="n">
-        <v>524.9036321565281</v>
+        <v>786.7729354759944</v>
       </c>
       <c r="O18" t="n">
-        <v>785.3166962490202</v>
+        <v>1047.185999568486</v>
       </c>
       <c r="P18" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q18" t="n">
         <v>1052.968135806666</v>
@@ -5622,22 +5622,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T18" t="n">
-        <v>1052.968135806666</v>
+        <v>946.5206566394056</v>
       </c>
       <c r="U18" t="n">
-        <v>1052.968135806666</v>
+        <v>718.3003278816104</v>
       </c>
       <c r="V18" t="n">
-        <v>1052.968135806666</v>
+        <v>483.1482196498678</v>
       </c>
       <c r="W18" t="n">
-        <v>1052.968135806666</v>
+        <v>228.9108629216662</v>
       </c>
       <c r="X18" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y18" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="19">
@@ -5704,7 +5704,7 @@
         <v>182.5089274706534</v>
       </c>
       <c r="U19" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V19" t="n">
         <v>21.05936271613333</v>
@@ -5729,19 +5729,19 @@
         <v>286.9604071117561</v>
       </c>
       <c r="C20" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="D20" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="E20" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="F20" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="G20" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="H20" t="n">
         <v>21.05936271613333</v>
@@ -5753,19 +5753,19 @@
         <v>21.05936271613333</v>
       </c>
       <c r="K20" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L20" t="n">
-        <v>330.2546714142361</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M20" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N20" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O20" t="n">
-        <v>950.1371873885138</v>
+        <v>950.1371873885137</v>
       </c>
       <c r="P20" t="n">
         <v>1052.968135806666</v>
@@ -5774,28 +5774,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R20" t="n">
-        <v>907.4554057415451</v>
+        <v>907.4554057415448</v>
       </c>
       <c r="S20" t="n">
-        <v>698.4535282668857</v>
+        <v>698.4535282668854</v>
       </c>
       <c r="T20" t="n">
-        <v>552.8614515073789</v>
+        <v>473.5132653508253</v>
       </c>
       <c r="U20" t="n">
-        <v>552.8614515073789</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="V20" t="n">
-        <v>552.8614515073789</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="W20" t="n">
-        <v>552.8614515073789</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="X20" t="n">
-        <v>552.8614515073789</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="Y20" t="n">
-        <v>552.8614515073789</v>
+        <v>286.9604071117561</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>195.5123919972604</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C21" t="n">
         <v>21.05936271613333</v>
@@ -5829,25 +5829,25 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J21" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K21" t="n">
-        <v>154.3302328992135</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="L21" t="n">
-        <v>394.9337607940759</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="M21" t="n">
-        <v>600.5536970360758</v>
+        <v>264.2940185443782</v>
       </c>
       <c r="N21" t="n">
-        <v>600.5536970360758</v>
+        <v>524.9036321565281</v>
       </c>
       <c r="O21" t="n">
-        <v>860.9667611285679</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P21" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q21" t="n">
         <v>1052.968135806666</v>
@@ -5859,22 +5859,22 @@
         <v>782.4144152406835</v>
       </c>
       <c r="T21" t="n">
-        <v>580.4293576557594</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="U21" t="n">
-        <v>430.6645002290031</v>
+        <v>554.1940864828883</v>
       </c>
       <c r="V21" t="n">
-        <v>195.5123919972604</v>
+        <v>319.0419782511456</v>
       </c>
       <c r="W21" t="n">
-        <v>195.5123919972604</v>
+        <v>64.80462152294399</v>
       </c>
       <c r="X21" t="n">
-        <v>195.5123919972604</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y21" t="n">
-        <v>195.5123919972604</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="C22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="D22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="E22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="F22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="G22" t="n">
         <v>21.05936271613333</v>
@@ -5935,25 +5935,25 @@
         <v>182.5089274706534</v>
       </c>
       <c r="S22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>818.7624959030018</v>
+        <v>578.065213936384</v>
       </c>
       <c r="C23" t="n">
-        <v>552.8614515073789</v>
+        <v>578.065213936384</v>
       </c>
       <c r="D23" t="n">
-        <v>552.8614515073789</v>
+        <v>578.065213936384</v>
       </c>
       <c r="E23" t="n">
-        <v>286.9604071117561</v>
+        <v>578.065213936384</v>
       </c>
       <c r="F23" t="n">
-        <v>286.9604071117561</v>
+        <v>495.9595608383935</v>
       </c>
       <c r="G23" t="n">
-        <v>286.9604071117561</v>
+        <v>495.9595608383935</v>
       </c>
       <c r="H23" t="n">
-        <v>21.05936271613333</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I23" t="n">
         <v>21.05936271613333</v>
@@ -6014,25 +6014,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S23" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320068</v>
       </c>
       <c r="T23" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320068</v>
       </c>
       <c r="U23" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320068</v>
       </c>
       <c r="V23" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320068</v>
       </c>
       <c r="W23" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320068</v>
       </c>
       <c r="X23" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320068</v>
       </c>
       <c r="Y23" t="n">
-        <v>818.7624959030018</v>
+        <v>843.9662583320068</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>187.5118336211213</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5118336211213</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D24" t="n">
-        <v>187.5118336211213</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E24" t="n">
-        <v>187.5118336211213</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F24" t="n">
-        <v>40.97727564800627</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G24" t="n">
         <v>21.05936271613333</v>
@@ -6066,22 +6066,22 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J24" t="n">
-        <v>24.95018035683209</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K24" t="n">
-        <v>24.95018035683209</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L24" t="n">
-        <v>265.5537082516946</v>
+        <v>79.33446981177599</v>
       </c>
       <c r="M24" t="n">
-        <v>526.1633218638444</v>
+        <v>339.9440834239259</v>
       </c>
       <c r="N24" t="n">
-        <v>786.7729354759944</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O24" t="n">
-        <v>1047.185999568486</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P24" t="n">
         <v>1052.968135806666</v>
@@ -6090,28 +6090,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R24" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S24" t="n">
-        <v>1052.968135806666</v>
+        <v>946.5206566394056</v>
       </c>
       <c r="T24" t="n">
-        <v>1052.968135806666</v>
+        <v>946.5206566394056</v>
       </c>
       <c r="U24" t="n">
-        <v>1052.968135806666</v>
+        <v>718.3003278816104</v>
       </c>
       <c r="V24" t="n">
-        <v>817.8160275749237</v>
+        <v>483.1482196498678</v>
       </c>
       <c r="W24" t="n">
-        <v>563.5786708467222</v>
+        <v>228.9108629216662</v>
       </c>
       <c r="X24" t="n">
-        <v>355.7271706411893</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y24" t="n">
-        <v>355.7271706411893</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="25">
@@ -6172,10 +6172,10 @@
         <v>182.5089274706534</v>
       </c>
       <c r="S25" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T25" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U25" t="n">
         <v>21.05936271613333</v>
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>255.2650026197978</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="C26" t="n">
-        <v>21.05936271613333</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="D26" t="n">
-        <v>21.05936271613333</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="E26" t="n">
-        <v>21.05936271613333</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="F26" t="n">
-        <v>21.05936271613333</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="G26" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H26" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I26" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J26" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="K26" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L26" t="n">
-        <v>330.2546714142361</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M26" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N26" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O26" t="n">
-        <v>950.1371873885138</v>
+        <v>950.1371873885137</v>
       </c>
       <c r="P26" t="n">
         <v>1052.968135806666</v>
@@ -6266,10 +6266,10 @@
         <v>1052.968135806666</v>
       </c>
       <c r="X26" t="n">
-        <v>787.0670914110435</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y26" t="n">
-        <v>521.1660470154206</v>
+        <v>822.9009808048727</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>133.3732845040028</v>
+        <v>589.8625260751134</v>
       </c>
       <c r="C27" t="n">
-        <v>133.3732845040028</v>
+        <v>415.4094967939863</v>
       </c>
       <c r="D27" t="n">
-        <v>133.3732845040028</v>
+        <v>415.4094967939863</v>
       </c>
       <c r="E27" t="n">
-        <v>133.3732845040028</v>
+        <v>256.1720417885308</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3732845040028</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="G27" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="H27" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I27" t="n">
         <v>21.05936271613333</v>
@@ -6309,19 +6309,19 @@
         <v>158.2210505399122</v>
       </c>
       <c r="L27" t="n">
-        <v>339.9440834239259</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="M27" t="n">
-        <v>339.9440834239259</v>
+        <v>659.4341920469246</v>
       </c>
       <c r="N27" t="n">
-        <v>600.5536970360758</v>
+        <v>920.0438056590746</v>
       </c>
       <c r="O27" t="n">
-        <v>860.9667611285679</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="P27" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q27" t="n">
         <v>1052.968135806666</v>
@@ -6330,25 +6330,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S27" t="n">
-        <v>1052.968135806666</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="T27" t="n">
-        <v>850.9830782217423</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="U27" t="n">
-        <v>622.7627494639471</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="V27" t="n">
-        <v>387.6106412322044</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="W27" t="n">
-        <v>133.3732845040028</v>
+        <v>626.2421716711058</v>
       </c>
       <c r="X27" t="n">
-        <v>133.3732845040028</v>
+        <v>626.2421716711058</v>
       </c>
       <c r="Y27" t="n">
-        <v>133.3732845040028</v>
+        <v>626.2421716711058</v>
       </c>
     </row>
     <row r="28">
@@ -6361,10 +6361,10 @@
         <v>1052.968135806666</v>
       </c>
       <c r="C28" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="D28" t="n">
-        <v>891.5185710521463</v>
+        <v>902.8514963943306</v>
       </c>
       <c r="E28" t="n">
         <v>891.5185710521463</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>432.5524838712628</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="C29" t="n">
         <v>286.9604071117561</v>
       </c>
       <c r="D29" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="E29" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="F29" t="n">
         <v>21.05936271613333</v>
@@ -6464,19 +6464,19 @@
         <v>21.05936271613333</v>
       </c>
       <c r="K29" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L29" t="n">
-        <v>330.2546714142361</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M29" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N29" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O29" t="n">
-        <v>950.1371873885138</v>
+        <v>950.1371873885137</v>
       </c>
       <c r="P29" t="n">
         <v>1052.968135806666</v>
@@ -6485,28 +6485,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R29" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S29" t="n">
-        <v>698.4535282668857</v>
+        <v>843.9662583320068</v>
       </c>
       <c r="T29" t="n">
-        <v>698.4535282668857</v>
+        <v>619.0259954159467</v>
       </c>
       <c r="U29" t="n">
-        <v>698.4535282668857</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="V29" t="n">
-        <v>698.4535282668857</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="W29" t="n">
-        <v>698.4535282668857</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="X29" t="n">
-        <v>698.4535282668857</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="Y29" t="n">
-        <v>432.5524838712628</v>
+        <v>552.8614515073789</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>422.7551432934429</v>
+        <v>342.0469499703754</v>
       </c>
       <c r="C30" t="n">
-        <v>248.3021140123159</v>
+        <v>167.5939206892484</v>
       </c>
       <c r="D30" t="n">
-        <v>99.36770435106465</v>
+        <v>167.5939206892484</v>
       </c>
       <c r="E30" t="n">
-        <v>99.36770435106465</v>
+        <v>167.5939206892484</v>
       </c>
       <c r="F30" t="n">
-        <v>99.36770435106465</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G30" t="n">
-        <v>99.36770435106465</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H30" t="n">
         <v>21.05936271613333</v>
@@ -6540,52 +6540,52 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J30" t="n">
-        <v>24.95018035683209</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K30" t="n">
-        <v>158.2210505399122</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L30" t="n">
-        <v>339.9440834239259</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="M30" t="n">
-        <v>600.5536970360758</v>
+        <v>281.6689763282832</v>
       </c>
       <c r="N30" t="n">
-        <v>600.5536970360758</v>
+        <v>524.9036321565281</v>
       </c>
       <c r="O30" t="n">
-        <v>860.9667611285679</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P30" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q30" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R30" t="n">
-        <v>1052.968135806666</v>
+        <v>972.2599424835989</v>
       </c>
       <c r="S30" t="n">
-        <v>1052.968135806666</v>
+        <v>972.2599424835989</v>
       </c>
       <c r="T30" t="n">
-        <v>1052.968135806666</v>
+        <v>972.2599424835989</v>
       </c>
       <c r="U30" t="n">
-        <v>1052.968135806666</v>
+        <v>972.2599424835989</v>
       </c>
       <c r="V30" t="n">
-        <v>1052.968135806666</v>
+        <v>972.2599424835989</v>
       </c>
       <c r="W30" t="n">
-        <v>798.7307790784648</v>
+        <v>718.0225857553974</v>
       </c>
       <c r="X30" t="n">
-        <v>798.7307790784648</v>
+        <v>718.0225857553974</v>
       </c>
       <c r="Y30" t="n">
-        <v>590.970480313511</v>
+        <v>510.2622869904434</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C31" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D31" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E31" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F31" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G31" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H31" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I31" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J31" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K31" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L31" t="n">
-        <v>924.9408477296159</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M31" t="n">
-        <v>970.5690754315369</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N31" t="n">
-        <v>1020.546982284663</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O31" t="n">
-        <v>1050.693372907661</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P31" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q31" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R31" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S31" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T31" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U31" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V31" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W31" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X31" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y31" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>521.1660470154206</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="C32" t="n">
-        <v>521.1660470154206</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D32" t="n">
-        <v>521.1660470154206</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E32" t="n">
-        <v>521.1660470154206</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F32" t="n">
-        <v>521.1660470154206</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G32" t="n">
-        <v>255.2650026197978</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H32" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I32" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J32" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="K32" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L32" t="n">
-        <v>330.2546714142361</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M32" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N32" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O32" t="n">
-        <v>950.1371873885138</v>
+        <v>950.1371873885137</v>
       </c>
       <c r="P32" t="n">
         <v>1052.968135806666</v>
@@ -6722,28 +6722,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R32" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S32" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T32" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="U32" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="V32" t="n">
-        <v>787.0670914110435</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="W32" t="n">
-        <v>787.0670914110435</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="X32" t="n">
-        <v>787.0670914110435</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="Y32" t="n">
-        <v>521.1660470154206</v>
+        <v>552.8614515073789</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>42.415035680551</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C33" t="n">
         <v>21.05936271613333</v>
@@ -6804,25 +6804,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S33" t="n">
-        <v>880.4795283993074</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T33" t="n">
-        <v>880.4795283993074</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U33" t="n">
-        <v>880.4795283993074</v>
+        <v>824.7478070488712</v>
       </c>
       <c r="V33" t="n">
-        <v>880.4795283993074</v>
+        <v>824.7478070488712</v>
       </c>
       <c r="W33" t="n">
-        <v>626.2421716711058</v>
+        <v>570.5104503206696</v>
       </c>
       <c r="X33" t="n">
-        <v>418.390671465573</v>
+        <v>362.6589501151368</v>
       </c>
       <c r="Y33" t="n">
-        <v>210.630372700619</v>
+        <v>189.2746997362014</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L34" t="n">
-        <v>924.9408477296159</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M34" t="n">
-        <v>970.5690754315369</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N34" t="n">
-        <v>1020.546982284663</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O34" t="n">
-        <v>1050.693372907661</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P34" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q34" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R34" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S34" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T34" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U34" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V34" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W34" t="n">
-        <v>891.5185710521463</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>286.9604071117561</v>
+        <v>308.2498066576779</v>
       </c>
       <c r="C35" t="n">
-        <v>286.9604071117561</v>
+        <v>308.2498066576779</v>
       </c>
       <c r="D35" t="n">
-        <v>286.9604071117561</v>
+        <v>308.2498066576779</v>
       </c>
       <c r="E35" t="n">
-        <v>286.9604071117561</v>
+        <v>308.2498066576779</v>
       </c>
       <c r="F35" t="n">
-        <v>286.9604071117561</v>
+        <v>308.2498066576779</v>
       </c>
       <c r="G35" t="n">
-        <v>21.05936271613333</v>
+        <v>308.2498066576779</v>
       </c>
       <c r="H35" t="n">
-        <v>21.05936271613333</v>
+        <v>42.34876226205506</v>
       </c>
       <c r="I35" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J35" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="K35" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L35" t="n">
-        <v>330.2546714142361</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N35" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O35" t="n">
-        <v>950.1371873885138</v>
+        <v>950.1371873885137</v>
       </c>
       <c r="P35" t="n">
         <v>1052.968135806666</v>
@@ -6965,22 +6965,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T35" t="n">
-        <v>1052.968135806666</v>
+        <v>828.027872890606</v>
       </c>
       <c r="U35" t="n">
-        <v>1052.968135806666</v>
+        <v>574.1508510533007</v>
       </c>
       <c r="V35" t="n">
-        <v>1052.968135806666</v>
+        <v>574.1508510533007</v>
       </c>
       <c r="W35" t="n">
-        <v>818.7624959030018</v>
+        <v>308.2498066576779</v>
       </c>
       <c r="X35" t="n">
-        <v>552.8614515073789</v>
+        <v>308.2498066576779</v>
       </c>
       <c r="Y35" t="n">
-        <v>286.9604071117561</v>
+        <v>308.2498066576779</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>346.3425862773555</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C36" t="n">
-        <v>346.3425862773555</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D36" t="n">
-        <v>346.3425862773555</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E36" t="n">
-        <v>346.3425862773555</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F36" t="n">
-        <v>346.3425862773555</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G36" t="n">
-        <v>207.66176134837</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H36" t="n">
-        <v>94.77552520969726</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I36" t="n">
         <v>21.05936271613333</v>
@@ -7020,46 +7020,46 @@
         <v>158.2210505399122</v>
       </c>
       <c r="L36" t="n">
-        <v>195.6857796103268</v>
+        <v>339.9440834239259</v>
       </c>
       <c r="M36" t="n">
-        <v>456.2953932224767</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="N36" t="n">
-        <v>716.9050068346266</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O36" t="n">
-        <v>977.3180709271187</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P36" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q36" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R36" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S36" t="n">
-        <v>782.4144152406835</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T36" t="n">
-        <v>782.4144152406835</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U36" t="n">
-        <v>554.1940864828883</v>
+        <v>824.7478070488712</v>
       </c>
       <c r="V36" t="n">
-        <v>554.1940864828883</v>
+        <v>589.5956988171286</v>
       </c>
       <c r="W36" t="n">
-        <v>554.1940864828883</v>
+        <v>335.3583420889269</v>
       </c>
       <c r="X36" t="n">
-        <v>346.3425862773555</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y36" t="n">
-        <v>346.3425862773555</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="37">
@@ -7114,28 +7114,28 @@
         <v>182.5089274706534</v>
       </c>
       <c r="Q37" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R37" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S37" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T37" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U37" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V37" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W37" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X37" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y37" t="n">
         <v>21.05936271613333</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>818.7624959030018</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="C38" t="n">
-        <v>818.7624959030018</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="D38" t="n">
-        <v>552.8614515073789</v>
+        <v>641.5543613459222</v>
       </c>
       <c r="E38" t="n">
-        <v>286.9604071117561</v>
+        <v>641.5543613459222</v>
       </c>
       <c r="F38" t="n">
-        <v>21.05936271613333</v>
+        <v>375.6533169502994</v>
       </c>
       <c r="G38" t="n">
-        <v>21.05936271613333</v>
+        <v>109.7522725546766</v>
       </c>
       <c r="H38" t="n">
         <v>21.05936271613333</v>
@@ -7175,19 +7175,19 @@
         <v>21.05936271613333</v>
       </c>
       <c r="K38" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L38" t="n">
-        <v>330.2546714142361</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N38" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O38" t="n">
-        <v>950.1371873885138</v>
+        <v>950.1371873885137</v>
       </c>
       <c r="P38" t="n">
         <v>1052.968135806666</v>
@@ -7199,25 +7199,25 @@
         <v>907.4554057415451</v>
       </c>
       <c r="S38" t="n">
-        <v>818.7624959030018</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T38" t="n">
-        <v>818.7624959030018</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="U38" t="n">
-        <v>818.7624959030018</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="V38" t="n">
-        <v>818.7624959030018</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="W38" t="n">
-        <v>818.7624959030018</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="X38" t="n">
-        <v>818.7624959030018</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="Y38" t="n">
-        <v>818.7624959030018</v>
+        <v>907.4554057415451</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>362.7501515557157</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C39" t="n">
-        <v>188.2971222745887</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D39" t="n">
-        <v>39.36271261333744</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E39" t="n">
-        <v>39.36271261333744</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F39" t="n">
-        <v>39.36271261333744</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G39" t="n">
-        <v>39.36271261333744</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H39" t="n">
         <v>21.05936271613333</v>
@@ -7257,16 +7257,16 @@
         <v>158.2210505399122</v>
       </c>
       <c r="L39" t="n">
-        <v>339.9440834239259</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="M39" t="n">
-        <v>600.5536970360758</v>
+        <v>659.4341920469246</v>
       </c>
       <c r="N39" t="n">
-        <v>600.5536970360758</v>
+        <v>920.0438056590746</v>
       </c>
       <c r="O39" t="n">
-        <v>860.9667611285679</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="P39" t="n">
         <v>1052.968135806666</v>
@@ -7281,22 +7281,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T39" t="n">
-        <v>1052.968135806666</v>
+        <v>946.4294551988269</v>
       </c>
       <c r="U39" t="n">
-        <v>824.7478070488712</v>
+        <v>718.2091264410317</v>
       </c>
       <c r="V39" t="n">
-        <v>824.7478070488712</v>
+        <v>483.0570182092889</v>
       </c>
       <c r="W39" t="n">
-        <v>570.5104503206696</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="X39" t="n">
-        <v>570.5104503206696</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y39" t="n">
-        <v>362.7501515557157</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="40">
@@ -7312,7 +7312,7 @@
         <v>1052.968135806666</v>
       </c>
       <c r="D40" t="n">
-        <v>1039.431664634539</v>
+        <v>902.8514963943306</v>
       </c>
       <c r="E40" t="n">
         <v>891.5185710521463</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>139.5738759498999</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="C41" t="n">
-        <v>139.5738759498999</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="D41" t="n">
-        <v>139.5738759498999</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="E41" t="n">
-        <v>139.5738759498999</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="F41" t="n">
-        <v>139.5738759498999</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="G41" t="n">
-        <v>139.5738759498999</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="H41" t="n">
         <v>11.51484476586674</v>
@@ -7415,16 +7415,16 @@
         <v>126.1805630071016</v>
       </c>
       <c r="L41" t="n">
+        <v>126.1805630071016</v>
+      </c>
+      <c r="M41" t="n">
         <v>268.6767669847026</v>
       </c>
-      <c r="M41" t="n">
-        <v>330.4150858975836</v>
-      </c>
       <c r="N41" t="n">
-        <v>472.9112898751846</v>
+        <v>411.1729709623036</v>
       </c>
       <c r="O41" t="n">
-        <v>472.9112898751846</v>
+        <v>553.6691749399046</v>
       </c>
       <c r="P41" t="n">
         <v>575.7422382933372</v>
@@ -7439,22 +7439,22 @@
         <v>575.7422382933372</v>
       </c>
       <c r="T41" t="n">
-        <v>430.3527841788581</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="U41" t="n">
-        <v>284.963330064379</v>
+        <v>447.683207109304</v>
       </c>
       <c r="V41" t="n">
-        <v>284.963330064379</v>
+        <v>302.2937529948249</v>
       </c>
       <c r="W41" t="n">
-        <v>139.5738759498999</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="X41" t="n">
-        <v>139.5738759498999</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="Y41" t="n">
-        <v>139.5738759498999</v>
+        <v>156.9042988803458</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>430.3527841788581</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="C42" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="D42" t="n">
-        <v>302.2937529948249</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="E42" t="n">
-        <v>156.9042988803458</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="F42" t="n">
         <v>11.51484476586674</v>
@@ -7491,13 +7491,13 @@
         <v>15.4056624065655</v>
       </c>
       <c r="K42" t="n">
-        <v>15.4056624065655</v>
+        <v>148.2536263605342</v>
       </c>
       <c r="L42" t="n">
-        <v>148.2536263605342</v>
+        <v>290.7498303381352</v>
       </c>
       <c r="M42" t="n">
-        <v>290.7498303381352</v>
+        <v>433.2460343157362</v>
       </c>
       <c r="N42" t="n">
         <v>433.2460343157362</v>
@@ -7533,7 +7533,7 @@
         <v>430.3527841788581</v>
       </c>
       <c r="Y42" t="n">
-        <v>430.3527841788581</v>
+        <v>284.963330064379</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.9042988803458</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="C43" t="n">
-        <v>156.9042988803458</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="D43" t="n">
         <v>11.51484476586674</v>
@@ -7600,19 +7600,19 @@
         <v>172.9644095203868</v>
       </c>
       <c r="U43" t="n">
-        <v>172.9644095203868</v>
+        <v>27.57495540590773</v>
       </c>
       <c r="V43" t="n">
-        <v>156.9042988803458</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="W43" t="n">
-        <v>156.9042988803458</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="X43" t="n">
-        <v>156.9042988803458</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="Y43" t="n">
-        <v>156.9042988803458</v>
+        <v>11.51484476586674</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11.51484476586674</v>
+        <v>302.2937529948249</v>
       </c>
       <c r="C44" t="n">
-        <v>11.51484476586674</v>
+        <v>302.2937529948249</v>
       </c>
       <c r="D44" t="n">
-        <v>11.51484476586674</v>
+        <v>302.2937529948249</v>
       </c>
       <c r="E44" t="n">
-        <v>11.51484476586674</v>
+        <v>302.2937529948249</v>
       </c>
       <c r="F44" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="G44" t="n">
         <v>11.51484476586674</v>
@@ -7649,16 +7649,16 @@
         <v>11.51484476586674</v>
       </c>
       <c r="K44" t="n">
-        <v>45.42267794238165</v>
+        <v>126.1805630071016</v>
       </c>
       <c r="L44" t="n">
-        <v>187.9188819199826</v>
+        <v>268.6767669847026</v>
       </c>
       <c r="M44" t="n">
-        <v>330.4150858975836</v>
+        <v>411.1729709623036</v>
       </c>
       <c r="N44" t="n">
-        <v>472.9112898751846</v>
+        <v>411.1729709623036</v>
       </c>
       <c r="O44" t="n">
         <v>472.9112898751846</v>
@@ -7670,28 +7670,28 @@
         <v>575.7422382933372</v>
       </c>
       <c r="R44" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="S44" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="T44" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="U44" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="V44" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="W44" t="n">
+        <v>575.7422382933372</v>
+      </c>
+      <c r="X44" t="n">
         <v>447.683207109304</v>
       </c>
-      <c r="S44" t="n">
+      <c r="Y44" t="n">
         <v>447.683207109304</v>
-      </c>
-      <c r="T44" t="n">
-        <v>447.683207109304</v>
-      </c>
-      <c r="U44" t="n">
-        <v>447.683207109304</v>
-      </c>
-      <c r="V44" t="n">
-        <v>302.2937529948249</v>
-      </c>
-      <c r="W44" t="n">
-        <v>156.9042988803458</v>
-      </c>
-      <c r="X44" t="n">
-        <v>156.9042988803458</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>11.51484476586674</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>11.51484476586674</v>
       </c>
       <c r="J45" t="n">
-        <v>15.4056624065655</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="K45" t="n">
-        <v>148.6765325896456</v>
+        <v>144.7857149489469</v>
       </c>
       <c r="L45" t="n">
-        <v>215.0997654585875</v>
+        <v>287.2819189265479</v>
       </c>
       <c r="M45" t="n">
-        <v>215.0997654585875</v>
+        <v>287.2819189265479</v>
       </c>
       <c r="N45" t="n">
-        <v>215.0997654585875</v>
+        <v>290.7498303381352</v>
       </c>
       <c r="O45" t="n">
-        <v>357.5959694361885</v>
+        <v>433.2460343157362</v>
       </c>
       <c r="P45" t="n">
-        <v>500.0921734137895</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="Q45" t="n">
         <v>575.7422382933372</v>
@@ -7752,16 +7752,16 @@
         <v>575.7422382933372</v>
       </c>
       <c r="S45" t="n">
-        <v>447.683207109304</v>
+        <v>575.7422382933372</v>
       </c>
       <c r="T45" t="n">
         <v>447.683207109304</v>
       </c>
       <c r="U45" t="n">
-        <v>302.2937529948249</v>
+        <v>447.683207109304</v>
       </c>
       <c r="V45" t="n">
-        <v>302.2937529948249</v>
+        <v>447.683207109304</v>
       </c>
       <c r="W45" t="n">
         <v>302.2937529948249</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="C46" t="n">
-        <v>156.9042988803458</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="D46" t="n">
-        <v>156.9042988803458</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="E46" t="n">
-        <v>156.9042988803458</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="F46" t="n">
         <v>11.51484476586674</v>
@@ -7837,19 +7837,19 @@
         <v>172.9644095203868</v>
       </c>
       <c r="U46" t="n">
-        <v>172.9644095203868</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="V46" t="n">
-        <v>172.9644095203868</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="W46" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="X46" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="Y46" t="n">
-        <v>172.9644095203868</v>
+        <v>11.51484476586674</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>379.7019745433215</v>
       </c>
       <c r="M2" t="n">
-        <v>374.281792800607</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>373.3486231699252</v>
       </c>
       <c r="O2" t="n">
-        <v>264.1626313042576</v>
+        <v>374.033770995021</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>265.2974156378405</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8067,10 +8067,10 @@
         <v>227.4702632160606</v>
       </c>
       <c r="N3" t="n">
-        <v>275.2772716566676</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>286.5318040177788</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8219,19 +8219,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>379.7019745433215</v>
+        <v>323.2006820096793</v>
       </c>
       <c r="M5" t="n">
-        <v>374.281792800607</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
         <v>373.3486231699252</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>374.033770995021</v>
       </c>
       <c r="P5" t="n">
-        <v>265.2974156378405</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>282.4899393532085</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>286.0695934953526</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>199.3661798422609</v>
+        <v>216.6779413773756</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>286.5318040177788</v>
       </c>
       <c r="P6" t="n">
         <v>277.9099669876646</v>
@@ -8459,16 +8459,16 @@
         <v>379.7019745433215</v>
       </c>
       <c r="M8" t="n">
-        <v>317.7805002669649</v>
+        <v>374.281792800607</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>373.3486231699252</v>
       </c>
       <c r="O8" t="n">
-        <v>374.033770995021</v>
+        <v>264.1626313042576</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>282.4899393532085</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>153.6302172925538</v>
+        <v>210.1585016809459</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>275.2772716566676</v>
       </c>
       <c r="O9" t="n">
         <v>286.5318040177788</v>
@@ -8550,7 +8550,7 @@
         <v>277.9099669876646</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,16 +8693,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>365.1022383087667</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M11" t="n">
         <v>358.0367731716555</v>
       </c>
       <c r="N11" t="n">
-        <v>275.2671208622372</v>
+        <v>356.8407421397321</v>
       </c>
       <c r="O11" t="n">
-        <v>214.5102874732696</v>
+        <v>276.872225769109</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>127.8064787429921</v>
+        <v>271.7420383163263</v>
       </c>
       <c r="M12" t="n">
-        <v>273.5272999310524</v>
+        <v>200.6160338017996</v>
       </c>
       <c r="N12" t="n">
-        <v>185.5616359442382</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O12" t="n">
         <v>130.8188201934042</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L14" t="n">
         <v>365.1022383087667</v>
       </c>
       <c r="M14" t="n">
-        <v>214.1012135983212</v>
+        <v>358.0367731716555</v>
       </c>
       <c r="N14" t="n">
-        <v>275.2671208622372</v>
+        <v>356.8407421397321</v>
       </c>
       <c r="O14" t="n">
-        <v>358.4458470466038</v>
+        <v>248.7606240152038</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>187.6238520543371</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>271.7420383163263</v>
@@ -9015,16 +9015,16 @@
         <v>273.5272999310524</v>
       </c>
       <c r="N15" t="n">
-        <v>118.4674613291454</v>
+        <v>261.9758428932763</v>
       </c>
       <c r="O15" t="n">
         <v>130.8188201934042</v>
       </c>
       <c r="P15" t="n">
-        <v>268.4575457101416</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627455</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9246,10 +9246,10 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L18" t="n">
-        <v>127.8064787429921</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>371.3531930724112</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N18" t="n">
         <v>381.709495280812</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>130.3625277915347</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M21" t="n">
-        <v>337.2886456526676</v>
+        <v>371.3531930724112</v>
       </c>
       <c r="N21" t="n">
-        <v>118.4674613291454</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K24" t="n">
         <v>129.8481964236088</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>186.6702232840452</v>
       </c>
       <c r="M24" t="n">
         <v>392.8337743093848</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>130.3625277915347</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>133.663080786811</v>
@@ -9957,22 +9957,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>311.3650978177534</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>129.5917403577182</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N27" t="n">
         <v>381.709495280812</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>188.6716133934488</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q27" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L30" t="n">
-        <v>311.3650978177534</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M30" t="n">
         <v>392.8337743093848</v>
       </c>
       <c r="N30" t="n">
-        <v>118.4674613291454</v>
+        <v>364.1590328728271</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>165.6496394201785</v>
+        <v>311.3650978177534</v>
       </c>
       <c r="M36" t="n">
         <v>392.8337743093848</v>
       </c>
       <c r="N36" t="n">
-        <v>381.709495280812</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,19 +10905,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>311.3650978177534</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>392.8337743093848</v>
       </c>
       <c r="N39" t="n">
-        <v>118.4674613291454</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>265.0858203424869</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q39" t="n">
         <v>133.663080786811</v>
@@ -11063,19 +11063,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>365.1022383087667</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M41" t="n">
-        <v>276.4631518941606</v>
+        <v>358.0367731716555</v>
       </c>
       <c r="N41" t="n">
         <v>356.8407421397321</v>
       </c>
       <c r="O41" t="n">
-        <v>214.5102874732696</v>
+        <v>358.4458470466038</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>240.2250868939877</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>129.8481964236088</v>
+        <v>264.0380590033752</v>
       </c>
       <c r="L42" t="n">
-        <v>261.9963413227584</v>
+        <v>271.7420383163263</v>
       </c>
       <c r="M42" t="n">
         <v>273.5272999310524</v>
       </c>
       <c r="N42" t="n">
-        <v>262.4030209024797</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O42" t="n">
         <v>274.7543797667386</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5717912936699</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>365.1022383087667</v>
@@ -11306,10 +11306,10 @@
         <v>358.0367731716555</v>
       </c>
       <c r="N44" t="n">
-        <v>356.8407421397321</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O44" t="n">
-        <v>214.5102874732696</v>
+        <v>276.872225769109</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,19 +11373,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>194.9006533580849</v>
+        <v>271.7420383163263</v>
       </c>
       <c r="M45" t="n">
         <v>129.5917403577182</v>
       </c>
       <c r="N45" t="n">
-        <v>118.4674613291454</v>
+        <v>121.9704021489306</v>
       </c>
       <c r="O45" t="n">
         <v>274.7543797667386</v>
@@ -11394,7 +11394,7 @@
         <v>268.4575457101416</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,22 +22547,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>238.4944508988148</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>210.7474820473487</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>262.9404861683771</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>212.6963612435744</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22595,10 +22595,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>65.08451001291104</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>79.16028999079705</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>205.3054091440787</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>242.3023790827193</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22623,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>39.75474277767455</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>3.509505991304451</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22638,7 +22638,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>138.4705219741645</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>56.2291691214873</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>88.86502757609097</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>61.83742563014317</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>61.74713620397006</v>
       </c>
     </row>
     <row r="4">
@@ -22747,10 +22747,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,16 +22781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>238.7982820901463</v>
+        <v>255.9554007912877</v>
       </c>
       <c r="C5" t="n">
         <v>221.3373321976732</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>210.7474820473487</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>237.9948104989275</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>222.4625278452202</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>242.3023790827193</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22866,25 +22866,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>20.66662469244591</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>13.70952088206664</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>1.133652820049576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>69.00818513185294</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,7 +22911,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>27.74761153050352</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22963,7 +22963,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>46.33425578299912</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22984,10 +22984,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>238.7982820901463</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>221.3373321976732</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>280.0976048695186</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>271.3671779418007</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>195.5392425424328</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>66.54032999707161</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>242.9526598062762</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>242.3023790827193</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,16 +23097,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.59762407653304</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>28.77293941498144</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>3.509505991304451</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>13.70952088206664</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23115,13 +23115,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>75.60022754197661</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23160,13 +23160,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>107.7594235875853</v>
       </c>
       <c r="X9" t="n">
-        <v>78.99454433128463</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>61.74713620397006</v>
       </c>
     </row>
     <row r="10">
@@ -23221,10 +23221,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,16 +23258,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>221.3373321976732</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>237.9948104989275</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>280.0976048695186</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.2102214038314</v>
@@ -23279,7 +23279,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J11" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>144.0576027644702</v>
+        <v>0.122043191135873</v>
       </c>
       <c r="S11" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T11" t="n">
-        <v>222.6908602868995</v>
+        <v>78.75530071356522</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3382516189322</v>
+        <v>107.4026920455979</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>200.9738175979421</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>242.3023790827193</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>22.59762407653304</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>45.93005811612295</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23352,10 +23352,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S12" t="n">
-        <v>26.82816175995114</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T12" t="n">
-        <v>81.84982268282663</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U12" t="n">
         <v>225.9381254702172</v>
@@ -23400,10 +23400,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>61.83742563014317</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>61.74713620397006</v>
       </c>
     </row>
     <row r="13">
@@ -23431,10 +23431,10 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H13" t="n">
-        <v>17.92264427397939</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I13" t="n">
-        <v>138.3029609685702</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J13" t="n">
         <v>90.42516245839145</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.6870224659892</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>175.4274210366964</v>
+        <v>98.27937439571069</v>
       </c>
       <c r="S13" t="n">
         <v>223.2933741908973</v>
@@ -23507,13 +23507,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>271.2746618304971</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H14" t="n">
-        <v>194.5917619175441</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I14" t="n">
-        <v>80.13072131717817</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J14" t="n">
         <v>4.097100052852174</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>144.0576027644702</v>
+        <v>17.27916189227733</v>
       </c>
       <c r="S14" t="n">
         <v>62.97629912657854</v>
       </c>
       <c r="T14" t="n">
-        <v>222.6908602868995</v>
+        <v>78.75530071356522</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3382516189322</v>
+        <v>107.4026920455979</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>22.59762407653304</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23580,19 +23580,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>79.73925078181082</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>1.133652820049576</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>10.51557580750287</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23634,7 +23634,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>107.7594235875853</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23668,13 +23668,13 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H16" t="n">
-        <v>17.92264427397939</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I16" t="n">
-        <v>138.3029609685702</v>
+        <v>10.26691092887646</v>
       </c>
       <c r="J16" t="n">
-        <v>90.42516245839145</v>
+        <v>74.52565292475089</v>
       </c>
       <c r="K16" t="n">
         <v>17.44799951871617</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>78.55470429498796</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>64.51022451846831</v>
@@ -23795,7 +23795,7 @@
         <v>85.99893476574641</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>125.9637348411067</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23808,25 +23808,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H18" t="n">
-        <v>16.86274614896064</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I18" t="n">
         <v>87.69233988828964</v>
@@ -23862,19 +23862,19 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T18" t="n">
-        <v>199.9652070090748</v>
+        <v>94.58220263348665</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23944,10 +23944,10 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3167657450791</v>
+        <v>126.4816966381042</v>
       </c>
       <c r="V19" t="n">
-        <v>92.30257421685317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,7 +23984,7 @@
         <v>415.2102214038314</v>
       </c>
       <c r="H20" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I20" t="n">
         <v>206.909162189371</v>
@@ -24020,10 +24020,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>78.55470429498783</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3382516189322</v>
+        <v>66.65092196225373</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24099,19 +24099,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U21" t="n">
-        <v>77.67091661772847</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>162.4651789847349</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9494798159088</v>
+        <v>8.114410708933974</v>
       </c>
       <c r="H22" t="n">
         <v>161.8582038473137</v>
@@ -24175,7 +24175,7 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S22" t="n">
-        <v>63.45830508392243</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T22" t="n">
         <v>227.7682732010226</v>
@@ -24203,19 +24203,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C23" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>325.5914491747009</v>
       </c>
       <c r="G23" t="n">
         <v>415.2102214038314</v>
@@ -24224,7 +24224,7 @@
         <v>75.28528753921177</v>
       </c>
       <c r="I23" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>4.097100052852174</v>
@@ -24254,7 +24254,7 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S23" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>222.6908602868995</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>154.3743551514258</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,10 +24294,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>117.5752828771414</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H24" t="n">
         <v>111.757373777286</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>170.7637213332854</v>
+        <v>162.4651789847349</v>
       </c>
       <c r="T24" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S25" t="n">
-        <v>63.45830508392243</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T25" t="n">
         <v>227.7682732010226</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3167657450791</v>
+        <v>126.4816966381042</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>133.4093082663797</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G26" t="n">
-        <v>415.2102214038314</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H26" t="n">
         <v>338.5273214908784</v>
@@ -24464,7 +24464,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J26" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>122.995904704387</v>
+        <v>158.4714552042778</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>130.5173345098348</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>26.10323410970494</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H27" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I27" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,16 +24570,16 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S27" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>7.41175199165292</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>135.2143665578067</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C29" t="n">
-        <v>221.1367357790959</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>91.44100766901636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G29" t="n">
         <v>415.2102214038314</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3382516189322</v>
+        <v>185.8353531494501</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24762,19 +24762,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H30" t="n">
-        <v>34.232115558704</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I30" t="n">
         <v>87.69233988828964</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>97.08446202703757</v>
+        <v>17.18335063720079</v>
       </c>
       <c r="S30" t="n">
         <v>170.7637213332854</v>
@@ -24853,7 +24853,7 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H31" t="n">
-        <v>2.023134740338776</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I31" t="n">
         <v>154.2024705022108</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296162</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,16 +24929,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>151.9681874521648</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H32" t="n">
-        <v>110.7608380391027</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I32" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>206.9118586999128</v>
@@ -24974,13 +24974,13 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V32" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>281.9251199383112</v>
       </c>
       <c r="Y32" t="n">
         <v>122.995904704387</v>
@@ -24996,7 +24996,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>151.5663827535423</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25044,13 +25044,13 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T33" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>34.03228790215829</v>
       </c>
     </row>
     <row r="34">
@@ -25135,10 +25135,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>126.6879292296161</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>65.87458628206232</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25166,16 +25166,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>151.9681874521648</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H35" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I35" t="n">
-        <v>206.909162189371</v>
+        <v>189.9297566917606</v>
       </c>
       <c r="J35" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25205,22 +25205,22 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T35" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>117.377385212785</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X35" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25245,13 +25245,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I36" t="n">
-        <v>14.71333901966135</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T36" t="n">
         <v>199.9652070090748</v>
@@ -25290,16 +25290,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>100.2996914017162</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R37" t="n">
         <v>175.4274210366964</v>
@@ -25369,7 +25369,7 @@
         <v>286.3167657450791</v>
       </c>
       <c r="V37" t="n">
-        <v>174.9895966828424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>58.74958424511996</v>
       </c>
     </row>
     <row r="38">
@@ -25397,16 +25397,16 @@
         <v>91.44100766901636</v>
       </c>
       <c r="E38" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>143.6340117900448</v>
       </c>
       <c r="G38" t="n">
-        <v>415.2102214038314</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H38" t="n">
-        <v>338.5273214908784</v>
+        <v>250.7213407507206</v>
       </c>
       <c r="I38" t="n">
         <v>206.909162189371</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>119.105877959755</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T38" t="n">
         <v>222.6908602868995</v>
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25485,7 +25485,7 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H39" t="n">
-        <v>93.63705737905393</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I39" t="n">
         <v>87.69233988828964</v>
@@ -25521,13 +25521,13 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T39" t="n">
-        <v>199.9652070090748</v>
+        <v>94.4919132073137</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>135.2143665578066</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>135.2143665578067</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25628,7 +25628,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>221.3373321976732</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,7 +25643,7 @@
         <v>415.2102214038314</v>
       </c>
       <c r="H41" t="n">
-        <v>211.7488806186856</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I41" t="n">
         <v>206.909162189371</v>
@@ -25679,13 +25679,13 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T41" t="n">
-        <v>78.75530071356522</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U41" t="n">
-        <v>107.4026920455979</v>
+        <v>124.5598107467393</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>183.8166988968006</v>
       </c>
       <c r="W41" t="n">
         <v>205.3054091440787</v>
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>39.75474277767455</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>28.77293941498144</v>
       </c>
       <c r="D42" t="n">
-        <v>20.66662469244591</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>13.70952088206664</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>1.133652820049576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.2940166796957</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>61.74713620397006</v>
       </c>
     </row>
     <row r="43">
@@ -25789,7 +25789,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>4.679913444878053</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25840,7 +25840,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3167657450791</v>
+        <v>142.3812061717448</v>
       </c>
       <c r="V43" t="n">
         <v>236.2381337901874</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>238.7982820901463</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>262.9404861683771</v>
       </c>
       <c r="G44" t="n">
-        <v>415.2102214038314</v>
+        <v>271.2746618304971</v>
       </c>
       <c r="H44" t="n">
         <v>338.5273214908784</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>17.27916189227733</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S44" t="n">
         <v>206.9118586999128</v>
@@ -25922,16 +25922,16 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V44" t="n">
-        <v>183.8166988968006</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>205.3054091440787</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>242.9526598062762</v>
       </c>
       <c r="Y44" t="n">
-        <v>242.3023790827193</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25992,19 +25992,19 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S45" t="n">
-        <v>43.9852804610926</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T45" t="n">
-        <v>199.9652070090748</v>
+        <v>73.18676613688197</v>
       </c>
       <c r="U45" t="n">
-        <v>82.00256589688294</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>107.7594235875853</v>
       </c>
       <c r="X45" t="n">
         <v>61.83742563014317</v>
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>151.3473115649873</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>1.485488449596943</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9494798159088</v>
@@ -26077,13 +26077,13 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3167657450791</v>
+        <v>270.4172562114385</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>142.5874387632567</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>408314.6227743073</v>
+        <v>408314.6227743074</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>408314.6227743074</v>
+        <v>408314.6227743073</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>492015.2604206147</v>
+        <v>492015.2604206146</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>492015.2604206148</v>
+        <v>492015.2604206147</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>492015.2604206147</v>
+        <v>492015.2604206146</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>492015.2604206147</v>
+        <v>492015.2604206146</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>411321.2081272718</v>
+        <v>411321.208127272</v>
       </c>
     </row>
     <row r="16">
@@ -26323,13 +26323,13 @@
         <v>145096.8720731843</v>
       </c>
       <c r="F2" t="n">
-        <v>145096.8720731843</v>
+        <v>145096.8720731844</v>
       </c>
       <c r="G2" t="n">
         <v>173340.1505849977</v>
       </c>
       <c r="H2" t="n">
-        <v>173340.1505849978</v>
+        <v>173340.1505849976</v>
       </c>
       <c r="I2" t="n">
         <v>173340.1505849977</v>
@@ -26338,7 +26338,7 @@
         <v>173340.1505849977</v>
       </c>
       <c r="K2" t="n">
-        <v>173340.1505849977</v>
+        <v>173340.1505849976</v>
       </c>
       <c r="L2" t="n">
         <v>173340.1505849977</v>
@@ -26353,7 +26353,7 @@
         <v>145096.8720731843</v>
       </c>
       <c r="P2" t="n">
-        <v>145096.8720731844</v>
+        <v>145096.8720731843</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48236.11653089451</v>
+        <v>48236.11653089453</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50713.66903215174</v>
+        <v>50475.45784241413</v>
       </c>
       <c r="C4" t="n">
-        <v>50713.66903215174</v>
+        <v>50475.45784241414</v>
       </c>
       <c r="D4" t="n">
-        <v>50713.66903215174</v>
+        <v>50475.45784241413</v>
       </c>
       <c r="E4" t="n">
-        <v>48918.95370960184</v>
+        <v>48689.19541637823</v>
       </c>
       <c r="F4" t="n">
-        <v>48918.95370960183</v>
+        <v>48689.19541637823</v>
       </c>
       <c r="G4" t="n">
-        <v>59138.96175874331</v>
+        <v>58861.50162459179</v>
       </c>
       <c r="H4" t="n">
-        <v>59138.96175874332</v>
+        <v>58861.50162459179</v>
       </c>
       <c r="I4" t="n">
-        <v>59138.96175874332</v>
+        <v>58861.50162459179</v>
       </c>
       <c r="J4" t="n">
-        <v>59138.96175874332</v>
+        <v>58861.50162459179</v>
       </c>
       <c r="K4" t="n">
-        <v>59138.96175874331</v>
+        <v>58861.50162459179</v>
       </c>
       <c r="L4" t="n">
-        <v>59138.96175874332</v>
+        <v>58861.50162459179</v>
       </c>
       <c r="M4" t="n">
-        <v>59138.96175874332</v>
+        <v>58861.50162459179</v>
       </c>
       <c r="N4" t="n">
-        <v>59138.96175874331</v>
+        <v>58861.50162459179</v>
       </c>
       <c r="O4" t="n">
-        <v>48918.95370960183</v>
+        <v>48689.19541637823</v>
       </c>
       <c r="P4" t="n">
-        <v>48918.95370960184</v>
+        <v>48689.19541637824</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1850.673852489796</v>
+        <v>2088.885042227404</v>
       </c>
       <c r="C6" t="n">
-        <v>50086.79038338433</v>
+        <v>50325.00157312196</v>
       </c>
       <c r="D6" t="n">
-        <v>50086.79038338433</v>
+        <v>50325.00157312198</v>
       </c>
       <c r="E6" t="n">
-        <v>68435.92390823716</v>
+        <v>68665.68220146076</v>
       </c>
       <c r="F6" t="n">
-        <v>86924.94459895176</v>
+        <v>87154.70289217541</v>
       </c>
       <c r="G6" t="n">
-        <v>64994.26638943588</v>
+        <v>65271.72652358736</v>
       </c>
       <c r="H6" t="n">
-        <v>97694.3814194211</v>
+        <v>97971.84155357251</v>
       </c>
       <c r="I6" t="n">
-        <v>97694.38141942101</v>
+        <v>97971.84155357254</v>
       </c>
       <c r="J6" t="n">
-        <v>60034.50587041558</v>
+        <v>60311.96600456705</v>
       </c>
       <c r="K6" t="n">
-        <v>97694.38141942106</v>
+        <v>97971.84155357252</v>
       </c>
       <c r="L6" t="n">
-        <v>97694.38141942104</v>
+        <v>97971.84155357254</v>
       </c>
       <c r="M6" t="n">
-        <v>97694.38141942093</v>
+        <v>97971.84155357245</v>
       </c>
       <c r="N6" t="n">
-        <v>97694.38141942109</v>
+        <v>97971.84155357254</v>
       </c>
       <c r="O6" t="n">
-        <v>86924.94459895178</v>
+        <v>87154.70289217538</v>
       </c>
       <c r="P6" t="n">
-        <v>86924.94459895184</v>
+        <v>87154.70289217535</v>
       </c>
     </row>
   </sheetData>
@@ -31750,19 +31750,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I11" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J11" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K11" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L11" t="n">
         <v>14.5997362345548</v>
@@ -31783,10 +31783,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S11" t="n">
-        <v>2.10821088633251</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T11" t="n">
         <v>0.4049892772318401</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H12" t="n">
         <v>0.4780704592104726</v>
@@ -31838,7 +31838,7 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J12" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K12" t="n">
         <v>7.993242550750212</v>
@@ -31856,7 +31856,7 @@
         <v>11.77742425104019</v>
       </c>
       <c r="P12" t="n">
-        <v>9.452421277522959</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q12" t="n">
         <v>6.318693299210532</v>
@@ -31929,7 +31929,7 @@
         <v>6.505241928988658</v>
       </c>
       <c r="N13" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O13" t="n">
         <v>5.865771705150827</v>
@@ -31947,7 +31947,7 @@
         <v>0.7232238460750018</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U13" t="n">
         <v>0.002263611411815345</v>
@@ -34705,16 +34705,16 @@
         <v>143.9355595733343</v>
       </c>
       <c r="M2" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>143.9355595733343</v>
       </c>
       <c r="O2" t="n">
+        <v>143.9355595733343</v>
+      </c>
+      <c r="P2" t="n">
         <v>34.06441988257091</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34787,10 +34787,10 @@
         <v>85.33622929404227</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>143.9355595733343</v>
+        <v>87.4342670396921</v>
       </c>
       <c r="M5" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>143.9355595733343</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="P5" t="n">
-        <v>34.06441988257091</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>85.33622929404227</v>
+      </c>
+      <c r="O6" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="M6" t="n">
-        <v>143.9355595733343</v>
-      </c>
-      <c r="N6" t="n">
-        <v>68.0244677589276</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>143.9355595733343</v>
@@ -35179,16 +35179,16 @@
         <v>143.9355595733343</v>
       </c>
       <c r="M8" t="n">
-        <v>87.4342670396921</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="O8" t="n">
-        <v>143.9355595733343</v>
+        <v>34.06441988257091</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>68.02446775892757</v>
+      </c>
+      <c r="N9" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="M9" t="n">
-        <v>11.49618337053544</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>143.9355595733343</v>
@@ -35270,7 +35270,7 @@
         <v>143.9355595733343</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,16 +35413,16 @@
         <v>115.8239578194291</v>
       </c>
       <c r="L11" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>143.9355595733343</v>
       </c>
       <c r="N11" t="n">
+        <v>143.9355595733343</v>
+      </c>
+      <c r="O11" t="n">
         <v>62.36193829583942</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>103.8696448668208</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>134.6170405889698</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="M12" t="n">
-        <v>143.9355595733343</v>
+        <v>71.02429344408147</v>
       </c>
       <c r="N12" t="n">
-        <v>67.09417461509284</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>115.8239578194291</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>143.9355595733343</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="N14" t="n">
-        <v>62.36193829583942</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="O14" t="n">
-        <v>143.9355595733343</v>
+        <v>34.25033654193428</v>
       </c>
       <c r="P14" t="n">
         <v>103.8696448668208</v>
@@ -35726,7 +35726,7 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K15" t="n">
-        <v>57.77565563072836</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L15" t="n">
         <v>143.9355595733343</v>
@@ -35735,16 +35735,16 @@
         <v>143.9355595733343</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>143.5083815641309</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>224.4417418455864</v>
       </c>
       <c r="O17" t="n">
-        <v>166.2898937894758</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P17" t="n">
         <v>103.8696448668208</v>
@@ -35966,10 +35966,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M18" t="n">
-        <v>241.7614527146931</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N18" t="n">
         <v>263.2420339516666</v>
@@ -35978,10 +35978,10 @@
         <v>263.0434990833253</v>
       </c>
       <c r="P18" t="n">
-        <v>193.9407825031299</v>
+        <v>5.840541654727375</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K21" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>207.6969052949494</v>
+        <v>241.7614527146931</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O21" t="n">
         <v>263.0434990833253</v>
@@ -36218,7 +36218,7 @@
         <v>193.9407825031299</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>243.0338665604671</v>
+        <v>58.86374454105319</v>
       </c>
       <c r="M24" t="n">
         <v>263.2420339516666</v>
@@ -36452,7 +36452,7 @@
         <v>263.0434990833253</v>
       </c>
       <c r="P24" t="n">
-        <v>5.840541654727375</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>134.6170405889698</v>
       </c>
       <c r="L27" t="n">
-        <v>183.5586190747613</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N27" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="O27" t="n">
-        <v>263.0434990833253</v>
+        <v>57.85279320004458</v>
       </c>
       <c r="P27" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>183.5586190747613</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>245.6915715436817</v>
       </c>
       <c r="O30" t="n">
         <v>263.0434990833253</v>
@@ -36929,7 +36929,7 @@
         <v>193.9407825031299</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>134.6170405889698</v>
       </c>
       <c r="L36" t="n">
-        <v>37.84316067718645</v>
+        <v>183.5586190747613</v>
       </c>
       <c r="M36" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="N36" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>134.6170405889698</v>
       </c>
       <c r="L39" t="n">
-        <v>183.5586190747613</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M39" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O39" t="n">
-        <v>263.0434990833253</v>
+        <v>134.2670001490827</v>
       </c>
       <c r="P39" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,19 +37783,19 @@
         <v>115.8239578194291</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="M41" t="n">
-        <v>62.36193829583942</v>
       </c>
       <c r="N41" t="n">
         <v>143.9355595733343</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="P41" t="n">
-        <v>103.8696448668208</v>
+        <v>22.29602358932591</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>134.1898625797664</v>
       </c>
       <c r="L42" t="n">
-        <v>134.1898625797664</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="M42" t="n">
         <v>143.9355595733343</v>
       </c>
       <c r="N42" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>143.9355595733343</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>34.25033654193425</v>
+        <v>115.8239578194291</v>
       </c>
       <c r="L44" t="n">
         <v>143.9355595733343</v>
@@ -38026,10 +38026,10 @@
         <v>143.9355595733343</v>
       </c>
       <c r="N44" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>62.36193829583942</v>
       </c>
       <c r="P44" t="n">
         <v>103.8696448668208</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>134.6170405889698</v>
       </c>
       <c r="L45" t="n">
-        <v>67.09417461509284</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>3.502940819785204</v>
       </c>
       <c r="O45" t="n">
         <v>143.9355595733343</v>
@@ -38114,7 +38114,7 @@
         <v>143.9355595733343</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>570113.2779743039</v>
+        <v>570787.7489155704</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5211889.080852732</v>
+        <v>5211889.080852733</v>
       </c>
     </row>
     <row r="11">
@@ -662,56 +664,56 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>116.787741657648</v>
+      </c>
+      <c r="S2" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="T2" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>126.7784408721928</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,76 +737,76 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>143.9355595733343</v>
+      </c>
+      <c r="U3" t="n">
+        <v>143.9355595733343</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>143.9355595733343</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>126.7784408721928</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>143.9355595733343</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>143.9355595733343</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>143.9355595733343</v>
       </c>
     </row>
     <row r="4">
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>126.7784408721928</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>143.9355595733343</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>126.7784408721928</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>68.33533203135769</v>
+        <v>69.08192335761554</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -996,7 +998,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,73 +1132,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>126.7784408721928</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>126.7784408721928</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="H8" t="n">
+      <c r="X8" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="I8" t="n">
-        <v>143.9355595733343</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,76 +1211,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>126.7784408721928</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>112.2354442364965</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13.79640530943847</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>126.7784408721928</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1415,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>126.7784408721928</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,7 +1451,7 @@
         <v>143.9355595733343</v>
       </c>
       <c r="C12" t="n">
-        <v>126.7784408721928</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1509,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>15.02106709490683</v>
       </c>
       <c r="X12" t="n">
         <v>143.9355595733343</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.6870224659892</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.14804664098567</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>15.89950953364055</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>143.9355595733343</v>
+      </c>
+      <c r="Y14" t="n">
         <v>126.7784408721928</v>
-      </c>
-      <c r="S14" t="n">
-        <v>143.9355595733343</v>
-      </c>
-      <c r="T14" t="n">
-        <v>143.9355595733343</v>
-      </c>
-      <c r="U14" t="n">
-        <v>143.9355595733343</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>126.7784408721928</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>36.33552173879384</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1786,7 +1788,7 @@
         <v>143.9355595733343</v>
       </c>
       <c r="J16" t="n">
-        <v>15.89950953364058</v>
+        <v>15.89950953364055</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1889,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3382516189322</v>
+        <v>184.6873296566787</v>
       </c>
       <c r="V17" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>243.7673658373624</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1938,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>73.97314845232454</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>105.3830043755882</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1989,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>184.6873296566785</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>231.863583504628</v>
       </c>
     </row>
     <row r="21">
@@ -2163,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>170.7637213332854</v>
+        <v>145.526994466912</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U21" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>43.30780621874255</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2327,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>81.2845965670106</v>
+        <v>20.85732126240478</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H23" t="n">
         <v>263.2420339516666</v>
@@ -2339,7 +2341,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2400,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>8.29854234855058</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9381254702172</v>
+        <v>119.738113715417</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,22 +2563,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J26" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>133.7395525645122</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>227.7664834517758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.0158491400325</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>79.36450436122959</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2646,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I27" t="n">
         <v>87.69233988828964</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S27" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2716,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>11.21959608876251</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>83.70888068730562</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.097100052852174</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>144.0576027644702</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="X29" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>206.9118586999128</v>
-      </c>
-      <c r="T29" t="n">
-        <v>222.6908602868995</v>
-      </c>
-      <c r="U29" t="n">
-        <v>65.5028984694821</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="30">
@@ -2874,16 +2876,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>79.90111138983679</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>94.89462762832555</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>159.8350691069748</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="C32" t="n">
+      <c r="G32" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>87.80598074015786</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>263.2420339516666</v>
+        <v>231.863583504628</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3123,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.03818234132089</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>171.6504078751461</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="X34" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3275,64 +3277,64 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>231.8635835046279</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="I35" t="n">
-        <v>16.97940549761034</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4.097100052852174</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>222.6908602868995</v>
-      </c>
-      <c r="U35" t="n">
-        <v>251.3382516189322</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
+      <c r="Y35" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3351,16 +3353,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>27.02894543971248</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>105.4732938017613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,31 +3502,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="H38" t="n">
-        <v>87.80598074015778</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>4.097100052852159</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>227.7664834517759</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3633,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>105.4732938017611</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9381254702172</v>
+        <v>125.6384340685013</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3664,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>11.21959608876251</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>126.7784408721928</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>126.7784408721928</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,13 +3821,13 @@
         <v>126.7784408721928</v>
       </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>143.9355595733343</v>
+        <v>15.89950953364061</v>
       </c>
       <c r="V43" t="n">
-        <v>15.89950953364058</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,73 +3976,73 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.097100052852159</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>122.6813408193407</v>
+      </c>
+      <c r="S44" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="T44" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="G44" t="n">
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>126.7784408721928</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>126.7784408721929</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4107,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>126.7784408721928</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4119,10 +4121,10 @@
         <v>143.9355595733343</v>
       </c>
       <c r="X45" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>15.89950953364061</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>15.89950953364058</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="C2" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="D2" t="n">
-        <v>284.963330064379</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="E2" t="n">
-        <v>284.963330064379</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="F2" t="n">
-        <v>139.5738759498999</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="G2" t="n">
-        <v>139.5738759498999</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="H2" t="n">
         <v>11.51484476586674</v>
@@ -4334,46 +4336,46 @@
         <v>114.5298506767891</v>
       </c>
       <c r="L2" t="n">
-        <v>257.0260546543901</v>
+        <v>257.02605465439</v>
       </c>
       <c r="M2" t="n">
-        <v>257.0260546543901</v>
+        <v>399.522258631991</v>
       </c>
       <c r="N2" t="n">
-        <v>399.522258631991</v>
+        <v>486.0821830012861</v>
       </c>
       <c r="O2" t="n">
-        <v>542.018462609592</v>
+        <v>486.0821830012861</v>
       </c>
       <c r="P2" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="Q2" t="n">
-        <v>575.7422382933372</v>
+        <v>565.65062292511</v>
       </c>
       <c r="R2" t="n">
-        <v>575.7422382933372</v>
+        <v>447.683207109304</v>
       </c>
       <c r="S2" t="n">
-        <v>575.7422382933372</v>
+        <v>302.2937529948249</v>
       </c>
       <c r="T2" t="n">
-        <v>575.7422382933372</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="U2" t="n">
-        <v>575.7422382933372</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="V2" t="n">
-        <v>575.7422382933372</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="W2" t="n">
-        <v>575.7422382933372</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="X2" t="n">
-        <v>575.7422382933372</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="Y2" t="n">
-        <v>430.3527841788581</v>
+        <v>11.51484476586674</v>
       </c>
     </row>
     <row r="3">
@@ -4416,43 +4418,43 @@
         <v>279.3686088013051</v>
       </c>
       <c r="M3" t="n">
-        <v>363.851475802407</v>
+        <v>279.3686088013051</v>
       </c>
       <c r="N3" t="n">
-        <v>363.851475802407</v>
+        <v>363.8514758024069</v>
       </c>
       <c r="O3" t="n">
-        <v>506.3476797800079</v>
+        <v>363.8514758024069</v>
       </c>
       <c r="P3" t="n">
-        <v>506.3476797800079</v>
+        <v>506.3476797800078</v>
       </c>
       <c r="Q3" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="R3" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="S3" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="T3" t="n">
-        <v>575.7422382933372</v>
+        <v>430.352784178858</v>
       </c>
       <c r="U3" t="n">
-        <v>575.7422382933372</v>
+        <v>284.963330064379</v>
       </c>
       <c r="V3" t="n">
-        <v>430.3527841788581</v>
+        <v>284.963330064379</v>
       </c>
       <c r="W3" t="n">
-        <v>430.3527841788581</v>
+        <v>139.5738759498999</v>
       </c>
       <c r="X3" t="n">
-        <v>284.963330064379</v>
+        <v>139.5738759498999</v>
       </c>
       <c r="Y3" t="n">
-        <v>139.5738759498999</v>
+        <v>11.51484476586674</v>
       </c>
     </row>
     <row r="4">
@@ -4510,10 +4512,10 @@
         <v>146.0471352561375</v>
       </c>
       <c r="R4" t="n">
-        <v>11.51484476586674</v>
+        <v>146.0471352561375</v>
       </c>
       <c r="S4" t="n">
-        <v>11.51484476586674</v>
+        <v>146.0471352561375</v>
       </c>
       <c r="T4" t="n">
         <v>11.51484476586674</v>
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>447.683207109304</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="C5" t="n">
-        <v>302.2937529948249</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="D5" t="n">
         <v>156.9042988803458</v>
@@ -4568,49 +4570,49 @@
         <v>11.51484476586674</v>
       </c>
       <c r="K5" t="n">
-        <v>114.5298506767891</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="L5" t="n">
-        <v>201.0897750460843</v>
+        <v>154.0110487434677</v>
       </c>
       <c r="M5" t="n">
-        <v>201.0897750460843</v>
+        <v>201.0897750460842</v>
       </c>
       <c r="N5" t="n">
         <v>343.5859790236852</v>
       </c>
       <c r="O5" t="n">
-        <v>486.0821830012862</v>
+        <v>486.0821830012861</v>
       </c>
       <c r="P5" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="Q5" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="R5" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="S5" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="T5" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="U5" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="V5" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="W5" t="n">
-        <v>575.7422382933372</v>
+        <v>430.352784178858</v>
       </c>
       <c r="X5" t="n">
-        <v>575.7422382933372</v>
+        <v>302.2937529948249</v>
       </c>
       <c r="Y5" t="n">
-        <v>575.7422382933372</v>
+        <v>156.9042988803458</v>
       </c>
     </row>
     <row r="6">
@@ -4635,61 +4637,61 @@
         <v>284.963330064379</v>
       </c>
       <c r="G6" t="n">
-        <v>215.9377421539166</v>
+        <v>215.1836095011309</v>
       </c>
       <c r="H6" t="n">
-        <v>102.568606561496</v>
+        <v>101.8144739087103</v>
       </c>
       <c r="I6" t="n">
-        <v>12.26897741865246</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="J6" t="n">
         <v>11.51484476586674</v>
       </c>
       <c r="K6" t="n">
-        <v>136.8724048237042</v>
+        <v>78.85906784720498</v>
       </c>
       <c r="L6" t="n">
-        <v>136.8724048237042</v>
+        <v>78.85906784720498</v>
       </c>
       <c r="M6" t="n">
-        <v>136.8724048237042</v>
+        <v>221.3552718248059</v>
       </c>
       <c r="N6" t="n">
-        <v>221.355271824806</v>
+        <v>221.3552718248059</v>
       </c>
       <c r="O6" t="n">
-        <v>363.851475802407</v>
+        <v>363.8514758024069</v>
       </c>
       <c r="P6" t="n">
-        <v>506.3476797800079</v>
+        <v>506.3476797800078</v>
       </c>
       <c r="Q6" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="R6" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="S6" t="n">
-        <v>430.3527841788581</v>
+        <v>430.352784178858</v>
       </c>
       <c r="T6" t="n">
-        <v>430.3527841788581</v>
+        <v>430.352784178858</v>
       </c>
       <c r="U6" t="n">
-        <v>430.3527841788581</v>
+        <v>430.352784178858</v>
       </c>
       <c r="V6" t="n">
-        <v>430.3527841788581</v>
+        <v>430.352784178858</v>
       </c>
       <c r="W6" t="n">
-        <v>430.3527841788581</v>
+        <v>430.352784178858</v>
       </c>
       <c r="X6" t="n">
-        <v>430.3527841788581</v>
+        <v>430.352784178858</v>
       </c>
       <c r="Y6" t="n">
-        <v>430.3527841788581</v>
+        <v>430.352784178858</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="C7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="D7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="E7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="F7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="G7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="H7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="I7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="J7" t="n">
         <v>11.51484476586674</v>
@@ -4744,31 +4746,31 @@
         <v>146.0471352561375</v>
       </c>
       <c r="Q7" t="n">
-        <v>59.01476833523407</v>
+        <v>146.0471352561375</v>
       </c>
       <c r="R7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="S7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="T7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="U7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="V7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="W7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="X7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.01476833523407</v>
+        <v>11.51484476586674</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>575.7422382933372</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="C8" t="n">
-        <v>575.7422382933372</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="D8" t="n">
-        <v>575.7422382933372</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="E8" t="n">
-        <v>575.7422382933372</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="F8" t="n">
-        <v>447.683207109304</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="G8" t="n">
-        <v>302.2937529948249</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="H8" t="n">
-        <v>156.9042988803458</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="I8" t="n">
         <v>11.51484476586674</v>
@@ -4808,46 +4810,46 @@
         <v>114.5298506767891</v>
       </c>
       <c r="L8" t="n">
-        <v>257.0260546543901</v>
+        <v>257.02605465439</v>
       </c>
       <c r="M8" t="n">
-        <v>399.522258631991</v>
+        <v>290.7498303381352</v>
       </c>
       <c r="N8" t="n">
-        <v>542.018462609592</v>
+        <v>433.2460343157362</v>
       </c>
       <c r="O8" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="P8" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="Q8" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="R8" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="S8" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="T8" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="U8" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="V8" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="W8" t="n">
-        <v>575.7422382933372</v>
+        <v>430.352784178858</v>
       </c>
       <c r="X8" t="n">
-        <v>575.7422382933372</v>
+        <v>284.963330064379</v>
       </c>
       <c r="Y8" t="n">
-        <v>575.7422382933372</v>
+        <v>284.963330064379</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>284.963330064379</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="C9" t="n">
-        <v>284.963330064379</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="D9" t="n">
-        <v>284.963330064379</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="E9" t="n">
-        <v>139.5738759498999</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="F9" t="n">
-        <v>139.5738759498999</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5738759498999</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="H9" t="n">
-        <v>26.2047403574792</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="I9" t="n">
-        <v>12.26897741865246</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="J9" t="n">
         <v>11.51484476586674</v>
@@ -4887,43 +4889,43 @@
         <v>11.51484476586674</v>
       </c>
       <c r="L9" t="n">
-        <v>11.51484476586674</v>
+        <v>78.85906784720498</v>
       </c>
       <c r="M9" t="n">
-        <v>78.85906784720504</v>
+        <v>221.3552718248059</v>
       </c>
       <c r="N9" t="n">
-        <v>221.355271824806</v>
+        <v>363.8514758024069</v>
       </c>
       <c r="O9" t="n">
-        <v>363.851475802407</v>
+        <v>506.3476797800078</v>
       </c>
       <c r="P9" t="n">
-        <v>506.3476797800079</v>
+        <v>506.3476797800078</v>
       </c>
       <c r="Q9" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="R9" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="S9" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="T9" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="U9" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="V9" t="n">
-        <v>575.7422382933372</v>
+        <v>430.352784178858</v>
       </c>
       <c r="W9" t="n">
-        <v>430.3527841788581</v>
+        <v>430.352784178858</v>
       </c>
       <c r="X9" t="n">
-        <v>430.3527841788581</v>
+        <v>284.963330064379</v>
       </c>
       <c r="Y9" t="n">
         <v>284.963330064379</v>
@@ -4981,7 +4983,7 @@
         <v>146.0471352561375</v>
       </c>
       <c r="Q10" t="n">
-        <v>59.01476833523407</v>
+        <v>146.0471352561375</v>
       </c>
       <c r="R10" t="n">
         <v>11.51484476586674</v>
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.51484476586674</v>
+        <v>430.352784178858</v>
       </c>
       <c r="C11" t="n">
-        <v>11.51484476586674</v>
+        <v>284.963330064379</v>
       </c>
       <c r="D11" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="E11" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="F11" t="n">
         <v>11.51484476586674</v>
@@ -5042,49 +5044,49 @@
         <v>11.51484476586674</v>
       </c>
       <c r="K11" t="n">
-        <v>126.1805630071016</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="L11" t="n">
-        <v>126.1805630071016</v>
+        <v>154.0110487434677</v>
       </c>
       <c r="M11" t="n">
-        <v>268.6767669847026</v>
+        <v>187.9188819199826</v>
       </c>
       <c r="N11" t="n">
-        <v>411.1729709623036</v>
+        <v>330.4150858975835</v>
       </c>
       <c r="O11" t="n">
-        <v>472.9112898751846</v>
+        <v>472.9112898751845</v>
       </c>
       <c r="P11" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="Q11" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="R11" t="n">
-        <v>430.3527841788581</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="S11" t="n">
-        <v>430.3527841788581</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="T11" t="n">
-        <v>284.963330064379</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="U11" t="n">
-        <v>139.5738759498999</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="V11" t="n">
-        <v>11.51484476586674</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="W11" t="n">
-        <v>11.51484476586674</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="X11" t="n">
-        <v>11.51484476586674</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.51484476586674</v>
+        <v>575.7422382933371</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>139.5738759498999</v>
+        <v>124.4010809045395</v>
       </c>
       <c r="C12" t="n">
-        <v>11.51484476586674</v>
+        <v>124.4010809045395</v>
       </c>
       <c r="D12" t="n">
-        <v>11.51484476586674</v>
+        <v>124.4010809045395</v>
       </c>
       <c r="E12" t="n">
-        <v>11.51484476586674</v>
+        <v>124.4010809045395</v>
       </c>
       <c r="F12" t="n">
-        <v>11.51484476586674</v>
+        <v>124.4010809045395</v>
       </c>
       <c r="G12" t="n">
-        <v>11.51484476586674</v>
+        <v>124.4010809045395</v>
       </c>
       <c r="H12" t="n">
         <v>11.51484476586674</v>
@@ -5121,49 +5123,49 @@
         <v>11.51484476586674</v>
       </c>
       <c r="K12" t="n">
-        <v>144.7857149489469</v>
+        <v>72.60356148098651</v>
       </c>
       <c r="L12" t="n">
-        <v>287.2819189265479</v>
+        <v>72.60356148098651</v>
       </c>
       <c r="M12" t="n">
-        <v>357.5959694361885</v>
+        <v>215.0997654585875</v>
       </c>
       <c r="N12" t="n">
-        <v>357.5959694361885</v>
+        <v>215.0997654585875</v>
       </c>
       <c r="O12" t="n">
-        <v>357.5959694361885</v>
+        <v>357.5959694361884</v>
       </c>
       <c r="P12" t="n">
-        <v>500.0921734137895</v>
+        <v>500.0921734137893</v>
       </c>
       <c r="Q12" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="R12" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="S12" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="T12" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="U12" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="V12" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="W12" t="n">
-        <v>575.7422382933372</v>
+        <v>560.5694432479767</v>
       </c>
       <c r="X12" t="n">
-        <v>430.3527841788581</v>
+        <v>415.1799891334976</v>
       </c>
       <c r="Y12" t="n">
-        <v>284.963330064379</v>
+        <v>269.7905350190185</v>
       </c>
     </row>
     <row r="13">
@@ -5203,10 +5205,10 @@
         <v>11.51484476586674</v>
       </c>
       <c r="L13" t="n">
-        <v>44.93712144333637</v>
+        <v>44.93712144333636</v>
       </c>
       <c r="M13" t="n">
-        <v>90.56534914525733</v>
+        <v>90.56534914525731</v>
       </c>
       <c r="N13" t="n">
         <v>140.5432559983831</v>
@@ -5218,13 +5220,13 @@
         <v>172.9644095203868</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.44216460524621</v>
+        <v>172.9644095203868</v>
       </c>
       <c r="R13" t="n">
-        <v>11.51484476586674</v>
+        <v>172.9644095203868</v>
       </c>
       <c r="S13" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="T13" t="n">
         <v>11.51484476586674</v>
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803458</v>
       </c>
       <c r="C14" t="n">
         <v>11.51484476586674</v>
@@ -5279,49 +5281,49 @@
         <v>11.51484476586674</v>
       </c>
       <c r="K14" t="n">
-        <v>11.51484476586674</v>
+        <v>126.1805630071016</v>
       </c>
       <c r="L14" t="n">
-        <v>154.0110487434677</v>
+        <v>268.6767669847025</v>
       </c>
       <c r="M14" t="n">
-        <v>296.5072527210687</v>
+        <v>411.1729709623035</v>
       </c>
       <c r="N14" t="n">
-        <v>439.0034566986697</v>
+        <v>472.9112898751845</v>
       </c>
       <c r="O14" t="n">
-        <v>472.9112898751846</v>
+        <v>472.9112898751845</v>
       </c>
       <c r="P14" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="Q14" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="R14" t="n">
-        <v>447.683207109304</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="S14" t="n">
+        <v>575.7422382933371</v>
+      </c>
+      <c r="T14" t="n">
+        <v>575.7422382933371</v>
+      </c>
+      <c r="U14" t="n">
+        <v>575.7422382933371</v>
+      </c>
+      <c r="V14" t="n">
+        <v>575.7422382933371</v>
+      </c>
+      <c r="W14" t="n">
+        <v>575.7422382933371</v>
+      </c>
+      <c r="X14" t="n">
+        <v>430.352784178858</v>
+      </c>
+      <c r="Y14" t="n">
         <v>302.2937529948249</v>
-      </c>
-      <c r="T14" t="n">
-        <v>156.9042988803458</v>
-      </c>
-      <c r="U14" t="n">
-        <v>11.51484476586674</v>
-      </c>
-      <c r="V14" t="n">
-        <v>11.51484476586674</v>
-      </c>
-      <c r="W14" t="n">
-        <v>11.51484476586674</v>
-      </c>
-      <c r="X14" t="n">
-        <v>11.51484476586674</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>11.51484476586674</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>284.963330064379</v>
+        <v>295.5851238093313</v>
       </c>
       <c r="C15" t="n">
-        <v>284.963330064379</v>
+        <v>295.5851238093313</v>
       </c>
       <c r="D15" t="n">
-        <v>284.963330064379</v>
+        <v>150.1956696948523</v>
       </c>
       <c r="E15" t="n">
-        <v>284.963330064379</v>
+        <v>150.1956696948523</v>
       </c>
       <c r="F15" t="n">
-        <v>139.5738759498999</v>
+        <v>150.1956696948523</v>
       </c>
       <c r="G15" t="n">
         <v>11.51484476586674</v>
@@ -5355,52 +5357,52 @@
         <v>11.51484476586674</v>
       </c>
       <c r="J15" t="n">
-        <v>15.4056624065655</v>
+        <v>11.51484476586674</v>
       </c>
       <c r="K15" t="n">
-        <v>148.6765325896456</v>
+        <v>144.7857149489469</v>
       </c>
       <c r="L15" t="n">
-        <v>291.1727365672466</v>
+        <v>287.2819189265478</v>
       </c>
       <c r="M15" t="n">
-        <v>433.6689405448476</v>
+        <v>287.2819189265478</v>
       </c>
       <c r="N15" t="n">
-        <v>575.7422382933372</v>
+        <v>287.2819189265478</v>
       </c>
       <c r="O15" t="n">
-        <v>575.7422382933372</v>
+        <v>429.7781229041487</v>
       </c>
       <c r="P15" t="n">
-        <v>575.7422382933372</v>
+        <v>500.0921734137893</v>
       </c>
       <c r="Q15" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933371</v>
       </c>
       <c r="R15" t="n">
-        <v>575.7422382933372</v>
+        <v>477.6771251347133</v>
       </c>
       <c r="S15" t="n">
-        <v>575.7422382933372</v>
+        <v>440.9745779238104</v>
       </c>
       <c r="T15" t="n">
-        <v>575.7422382933372</v>
+        <v>440.9745779238104</v>
       </c>
       <c r="U15" t="n">
-        <v>575.7422382933372</v>
+        <v>440.9745779238104</v>
       </c>
       <c r="V15" t="n">
-        <v>575.7422382933372</v>
+        <v>440.9745779238104</v>
       </c>
       <c r="W15" t="n">
-        <v>430.3527841788581</v>
+        <v>295.5851238093313</v>
       </c>
       <c r="X15" t="n">
-        <v>430.3527841788581</v>
+        <v>295.5851238093313</v>
       </c>
       <c r="Y15" t="n">
-        <v>430.3527841788581</v>
+        <v>295.5851238093313</v>
       </c>
     </row>
     <row r="16">
@@ -5431,7 +5433,7 @@
         <v>172.9644095203868</v>
       </c>
       <c r="I16" t="n">
-        <v>27.57495540590773</v>
+        <v>27.5749554059077</v>
       </c>
       <c r="J16" t="n">
         <v>11.51484476586674</v>
@@ -5440,10 +5442,10 @@
         <v>11.51484476586674</v>
       </c>
       <c r="L16" t="n">
-        <v>44.93712144333637</v>
+        <v>44.93712144333636</v>
       </c>
       <c r="M16" t="n">
-        <v>90.56534914525733</v>
+        <v>90.56534914525731</v>
       </c>
       <c r="N16" t="n">
         <v>140.5432559983831</v>
@@ -5528,7 +5530,7 @@
         <v>785.5101925369327</v>
       </c>
       <c r="O17" t="n">
-        <v>950.1371873885138</v>
+        <v>950.1371873885137</v>
       </c>
       <c r="P17" t="n">
         <v>1052.968135806666</v>
@@ -5537,28 +5539,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R17" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S17" t="n">
-        <v>1052.968135806666</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="T17" t="n">
-        <v>1052.968135806666</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="U17" t="n">
-        <v>799.0911139693611</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="V17" t="n">
-        <v>533.1900695737384</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="W17" t="n">
-        <v>267.2890251781155</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="X17" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="Y17" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.05936271613333</v>
+        <v>383.1189801079781</v>
       </c>
       <c r="C18" t="n">
-        <v>21.05936271613333</v>
+        <v>208.6659508268511</v>
       </c>
       <c r="D18" t="n">
-        <v>21.05936271613333</v>
+        <v>208.6659508268511</v>
       </c>
       <c r="E18" t="n">
-        <v>21.05936271613333</v>
+        <v>208.6659508268511</v>
       </c>
       <c r="F18" t="n">
-        <v>21.05936271613333</v>
+        <v>208.6659508268511</v>
       </c>
       <c r="G18" t="n">
-        <v>21.05936271613333</v>
+        <v>208.6659508268511</v>
       </c>
       <c r="H18" t="n">
-        <v>21.05936271613333</v>
+        <v>95.77971468817833</v>
       </c>
       <c r="I18" t="n">
         <v>21.05936271613333</v>
@@ -5595,22 +5597,22 @@
         <v>24.95018035683209</v>
       </c>
       <c r="K18" t="n">
-        <v>24.95018035683209</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L18" t="n">
-        <v>265.5537082516946</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="M18" t="n">
-        <v>526.1633218638444</v>
+        <v>659.4341920469246</v>
       </c>
       <c r="N18" t="n">
-        <v>786.7729354759944</v>
+        <v>659.4341920469246</v>
       </c>
       <c r="O18" t="n">
-        <v>1047.185999568486</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P18" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q18" t="n">
         <v>1052.968135806666</v>
@@ -5622,22 +5624,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T18" t="n">
-        <v>946.5206566394056</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U18" t="n">
-        <v>718.3003278816104</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V18" t="n">
-        <v>483.1482196498678</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W18" t="n">
-        <v>228.9108629216662</v>
+        <v>798.7307790784648</v>
       </c>
       <c r="X18" t="n">
-        <v>21.05936271613333</v>
+        <v>590.879278872932</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.05936271613333</v>
+        <v>383.1189801079781</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>286.9604071117561</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="C20" t="n">
         <v>286.9604071117561</v>
       </c>
       <c r="D20" t="n">
-        <v>286.9604071117561</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E20" t="n">
-        <v>286.9604071117561</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F20" t="n">
-        <v>286.9604071117561</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G20" t="n">
-        <v>286.9604071117561</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H20" t="n">
         <v>21.05936271613333</v>
@@ -5759,13 +5761,13 @@
         <v>330.254671414236</v>
       </c>
       <c r="M20" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N20" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O20" t="n">
-        <v>950.1371873885137</v>
+        <v>950.1371873885138</v>
       </c>
       <c r="P20" t="n">
         <v>1052.968135806666</v>
@@ -5774,28 +5776,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R20" t="n">
-        <v>907.4554057415448</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S20" t="n">
-        <v>698.4535282668854</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T20" t="n">
-        <v>473.5132653508253</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U20" t="n">
-        <v>286.9604071117561</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V20" t="n">
-        <v>286.9604071117561</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W20" t="n">
-        <v>286.9604071117561</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X20" t="n">
-        <v>286.9604071117561</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y20" t="n">
-        <v>286.9604071117561</v>
+        <v>818.7624959030018</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.05936271613333</v>
+        <v>475.7657853559551</v>
       </c>
       <c r="C21" t="n">
-        <v>21.05936271613333</v>
+        <v>475.7657853559551</v>
       </c>
       <c r="D21" t="n">
-        <v>21.05936271613333</v>
+        <v>326.8313756947039</v>
       </c>
       <c r="E21" t="n">
-        <v>21.05936271613333</v>
+        <v>167.5939206892484</v>
       </c>
       <c r="F21" t="n">
         <v>21.05936271613333</v>
@@ -5838,13 +5840,13 @@
         <v>24.95018035683209</v>
       </c>
       <c r="M21" t="n">
-        <v>264.2940185443782</v>
+        <v>285.559793968982</v>
       </c>
       <c r="N21" t="n">
-        <v>524.9036321565281</v>
+        <v>546.169407581132</v>
       </c>
       <c r="O21" t="n">
-        <v>785.3166962490202</v>
+        <v>806.582471673624</v>
       </c>
       <c r="P21" t="n">
         <v>977.3180709271187</v>
@@ -5853,28 +5855,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R21" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S21" t="n">
-        <v>782.4144152406835</v>
+        <v>905.9711716986744</v>
       </c>
       <c r="T21" t="n">
-        <v>782.4144152406835</v>
+        <v>703.9861141137503</v>
       </c>
       <c r="U21" t="n">
-        <v>554.1940864828883</v>
+        <v>475.7657853559551</v>
       </c>
       <c r="V21" t="n">
-        <v>319.0419782511456</v>
+        <v>475.7657853559551</v>
       </c>
       <c r="W21" t="n">
-        <v>64.80462152294399</v>
+        <v>475.7657853559551</v>
       </c>
       <c r="X21" t="n">
-        <v>21.05936271613333</v>
+        <v>475.7657853559551</v>
       </c>
       <c r="Y21" t="n">
-        <v>21.05936271613333</v>
+        <v>475.7657853559551</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="C22" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="D22" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="E22" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="F22" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="G22" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="H22" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="I22" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="J22" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="K22" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="L22" t="n">
-        <v>54.48163939360295</v>
+        <v>924.9408477296159</v>
       </c>
       <c r="M22" t="n">
-        <v>100.1098670955239</v>
+        <v>970.5690754315369</v>
       </c>
       <c r="N22" t="n">
-        <v>150.0877739486497</v>
+        <v>1020.546982284663</v>
       </c>
       <c r="O22" t="n">
-        <v>180.2341645716483</v>
+        <v>1050.693372907661</v>
       </c>
       <c r="P22" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q22" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R22" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="S22" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="T22" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="U22" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="V22" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="W22" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="X22" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="Y22" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>578.065213936384</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="C23" t="n">
-        <v>578.065213936384</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="D23" t="n">
-        <v>578.065213936384</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="E23" t="n">
-        <v>578.065213936384</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="F23" t="n">
-        <v>495.9595608383935</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="G23" t="n">
-        <v>495.9595608383935</v>
+        <v>500.0980457402644</v>
       </c>
       <c r="H23" t="n">
-        <v>230.0585164427707</v>
+        <v>234.1970013446416</v>
       </c>
       <c r="I23" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J23" t="n">
         <v>21.05936271613333</v>
@@ -5996,13 +5998,13 @@
         <v>330.254671414236</v>
       </c>
       <c r="M23" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N23" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O23" t="n">
-        <v>950.1371873885137</v>
+        <v>950.1371873885138</v>
       </c>
       <c r="P23" t="n">
         <v>1052.968135806666</v>
@@ -6014,25 +6016,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S23" t="n">
-        <v>843.9662583320068</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T23" t="n">
-        <v>843.9662583320068</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U23" t="n">
-        <v>843.9662583320068</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V23" t="n">
-        <v>843.9662583320068</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W23" t="n">
-        <v>843.9662583320068</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X23" t="n">
-        <v>843.9662583320068</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y23" t="n">
-        <v>843.9662583320068</v>
+        <v>1052.968135806666</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.05936271613333</v>
+        <v>316.5283303504996</v>
       </c>
       <c r="C24" t="n">
-        <v>21.05936271613333</v>
+        <v>316.5283303504996</v>
       </c>
       <c r="D24" t="n">
-        <v>21.05936271613333</v>
+        <v>167.5939206892484</v>
       </c>
       <c r="E24" t="n">
-        <v>21.05936271613333</v>
+        <v>167.5939206892484</v>
       </c>
       <c r="F24" t="n">
         <v>21.05936271613333</v>
@@ -6072,10 +6074,10 @@
         <v>21.05936271613333</v>
       </c>
       <c r="L24" t="n">
-        <v>79.33446981177599</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M24" t="n">
-        <v>339.9440834239259</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N24" t="n">
         <v>600.5536970360758</v>
@@ -6090,28 +6092,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R24" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S24" t="n">
-        <v>946.5206566394056</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="T24" t="n">
-        <v>946.5206566394056</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="U24" t="n">
-        <v>718.3003278816104</v>
+        <v>759.5319387877751</v>
       </c>
       <c r="V24" t="n">
-        <v>483.1482196498678</v>
+        <v>524.3798305560324</v>
       </c>
       <c r="W24" t="n">
-        <v>228.9108629216662</v>
+        <v>524.3798305560324</v>
       </c>
       <c r="X24" t="n">
-        <v>21.05936271613333</v>
+        <v>316.5283303504996</v>
       </c>
       <c r="Y24" t="n">
-        <v>21.05936271613333</v>
+        <v>316.5283303504996</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="C25" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="D25" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="E25" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="F25" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="G25" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="H25" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="I25" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="J25" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="K25" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="L25" t="n">
-        <v>54.48163939360295</v>
+        <v>924.9408477296159</v>
       </c>
       <c r="M25" t="n">
-        <v>100.1098670955239</v>
+        <v>970.5690754315369</v>
       </c>
       <c r="N25" t="n">
-        <v>150.0877739486497</v>
+        <v>1020.546982284663</v>
       </c>
       <c r="O25" t="n">
-        <v>180.2341645716483</v>
+        <v>1050.693372907661</v>
       </c>
       <c r="P25" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q25" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R25" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S25" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T25" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U25" t="n">
-        <v>21.05936271613333</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V25" t="n">
-        <v>21.05936271613333</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W25" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="X25" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>822.9009808048727</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="C26" t="n">
-        <v>822.9009808048727</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="D26" t="n">
-        <v>822.9009808048727</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="E26" t="n">
-        <v>556.9999364092498</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="F26" t="n">
-        <v>291.0988920136271</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="G26" t="n">
-        <v>25.19784761800421</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="H26" t="n">
-        <v>25.19784761800421</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I26" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J26" t="n">
         <v>21.05936271613333</v>
@@ -6236,10 +6238,10 @@
         <v>563.3128681098021</v>
       </c>
       <c r="N26" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O26" t="n">
-        <v>950.1371873885137</v>
+        <v>950.1371873885138</v>
       </c>
       <c r="P26" t="n">
         <v>1052.968135806666</v>
@@ -6248,28 +6250,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R26" t="n">
-        <v>1052.968135806666</v>
+        <v>917.8776786707955</v>
       </c>
       <c r="S26" t="n">
-        <v>1052.968135806666</v>
+        <v>708.8758011961361</v>
       </c>
       <c r="T26" t="n">
-        <v>1052.968135806666</v>
+        <v>483.9355382800759</v>
       </c>
       <c r="U26" t="n">
-        <v>1052.968135806666</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="V26" t="n">
-        <v>1052.968135806666</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="W26" t="n">
-        <v>1052.968135806666</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="X26" t="n">
-        <v>1052.968135806666</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="Y26" t="n">
-        <v>822.9009808048727</v>
+        <v>230.0585164427707</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>589.8625260751134</v>
+        <v>747.1427238830886</v>
       </c>
       <c r="C27" t="n">
-        <v>415.4094967939863</v>
+        <v>747.1427238830886</v>
       </c>
       <c r="D27" t="n">
-        <v>415.4094967939863</v>
+        <v>666.9765578616446</v>
       </c>
       <c r="E27" t="n">
-        <v>256.1720417885308</v>
+        <v>507.7391028561891</v>
       </c>
       <c r="F27" t="n">
-        <v>109.6374838154158</v>
+        <v>361.204544883074</v>
       </c>
       <c r="G27" t="n">
-        <v>109.6374838154158</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H27" t="n">
         <v>109.6374838154158</v>
@@ -6303,22 +6305,22 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J27" t="n">
-        <v>24.95018035683209</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K27" t="n">
-        <v>158.2210505399122</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L27" t="n">
-        <v>398.8245784347747</v>
+        <v>394.9337607940759</v>
       </c>
       <c r="M27" t="n">
-        <v>659.4341920469246</v>
+        <v>524.9036321565281</v>
       </c>
       <c r="N27" t="n">
-        <v>920.0438056590746</v>
+        <v>524.9036321565281</v>
       </c>
       <c r="O27" t="n">
-        <v>977.3180709271187</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P27" t="n">
         <v>977.3180709271187</v>
@@ -6327,28 +6329,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R27" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S27" t="n">
-        <v>880.4795283993074</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T27" t="n">
-        <v>880.4795283993074</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="U27" t="n">
-        <v>880.4795283993074</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="V27" t="n">
-        <v>880.4795283993074</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="W27" t="n">
-        <v>626.2421716711058</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="X27" t="n">
-        <v>626.2421716711058</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="Y27" t="n">
-        <v>626.2421716711058</v>
+        <v>747.1427238830886</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C28" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D28" t="n">
-        <v>902.8514963943306</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E28" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F28" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G28" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H28" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I28" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J28" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K28" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L28" t="n">
-        <v>924.9408477296159</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M28" t="n">
-        <v>970.5690754315369</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N28" t="n">
-        <v>1020.546982284663</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O28" t="n">
-        <v>1050.693372907661</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P28" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q28" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R28" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S28" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T28" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U28" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V28" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W28" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X28" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y28" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>286.9604071117561</v>
+        <v>109.7522725546766</v>
       </c>
       <c r="C29" t="n">
-        <v>286.9604071117561</v>
+        <v>109.7522725546766</v>
       </c>
       <c r="D29" t="n">
-        <v>286.9604071117561</v>
+        <v>109.7522725546766</v>
       </c>
       <c r="E29" t="n">
-        <v>286.9604071117561</v>
+        <v>109.7522725546766</v>
       </c>
       <c r="F29" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="G29" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H29" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I29" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J29" t="n">
         <v>21.05936271613333</v>
@@ -6476,7 +6478,7 @@
         <v>785.5101925369327</v>
       </c>
       <c r="O29" t="n">
-        <v>950.1371873885137</v>
+        <v>950.1371873885138</v>
       </c>
       <c r="P29" t="n">
         <v>1052.968135806666</v>
@@ -6485,28 +6487,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R29" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S29" t="n">
-        <v>843.9662583320068</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T29" t="n">
-        <v>619.0259954159467</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="U29" t="n">
-        <v>552.8614515073789</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="V29" t="n">
-        <v>552.8614515073789</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="W29" t="n">
-        <v>552.8614515073789</v>
+        <v>641.5543613459222</v>
       </c>
       <c r="X29" t="n">
-        <v>552.8614515073789</v>
+        <v>375.6533169502994</v>
       </c>
       <c r="Y29" t="n">
-        <v>552.8614515073789</v>
+        <v>109.7522725546766</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>342.0469499703754</v>
+        <v>788.8996395660675</v>
       </c>
       <c r="C30" t="n">
-        <v>167.5939206892484</v>
+        <v>614.4466102849406</v>
       </c>
       <c r="D30" t="n">
-        <v>167.5939206892484</v>
+        <v>465.5122006236894</v>
       </c>
       <c r="E30" t="n">
-        <v>167.5939206892484</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="F30" t="n">
-        <v>21.05936271613333</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="G30" t="n">
         <v>21.05936271613333</v>
@@ -6540,52 +6542,52 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J30" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K30" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="L30" t="n">
-        <v>21.05936271613333</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="M30" t="n">
-        <v>281.6689763282832</v>
+        <v>526.1633218638444</v>
       </c>
       <c r="N30" t="n">
-        <v>524.9036321565281</v>
+        <v>786.7729354759944</v>
       </c>
       <c r="O30" t="n">
-        <v>785.3166962490202</v>
+        <v>1047.185999568486</v>
       </c>
       <c r="P30" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q30" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R30" t="n">
-        <v>972.2599424835989</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S30" t="n">
-        <v>972.2599424835989</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T30" t="n">
-        <v>972.2599424835989</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U30" t="n">
-        <v>972.2599424835989</v>
+        <v>957.1149765861355</v>
       </c>
       <c r="V30" t="n">
-        <v>972.2599424835989</v>
+        <v>957.1149765861355</v>
       </c>
       <c r="W30" t="n">
-        <v>718.0225857553974</v>
+        <v>957.1149765861355</v>
       </c>
       <c r="X30" t="n">
-        <v>718.0225857553974</v>
+        <v>957.1149765861355</v>
       </c>
       <c r="Y30" t="n">
-        <v>510.2622869904434</v>
+        <v>957.1149765861355</v>
       </c>
     </row>
     <row r="31">
@@ -6658,10 +6660,10 @@
         <v>182.5089274706534</v>
       </c>
       <c r="W31" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X31" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y31" t="n">
         <v>21.05936271613333</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>818.7624959030018</v>
+      </c>
+      <c r="C32" t="n">
+        <v>818.7624959030018</v>
+      </c>
+      <c r="D32" t="n">
+        <v>818.7624959030018</v>
+      </c>
+      <c r="E32" t="n">
+        <v>818.7624959030018</v>
+      </c>
+      <c r="F32" t="n">
+        <v>552.8614515073789</v>
+      </c>
+      <c r="G32" t="n">
         <v>286.9604071117561</v>
-      </c>
-      <c r="C32" t="n">
-        <v>21.05936271613333</v>
-      </c>
-      <c r="D32" t="n">
-        <v>21.05936271613333</v>
-      </c>
-      <c r="E32" t="n">
-        <v>21.05936271613333</v>
-      </c>
-      <c r="F32" t="n">
-        <v>21.05936271613333</v>
-      </c>
-      <c r="G32" t="n">
-        <v>21.05936271613333</v>
       </c>
       <c r="H32" t="n">
         <v>21.05936271613333</v>
@@ -6707,13 +6709,13 @@
         <v>330.254671414236</v>
       </c>
       <c r="M32" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N32" t="n">
         <v>785.5101925369327</v>
       </c>
       <c r="O32" t="n">
-        <v>950.1371873885137</v>
+        <v>950.1371873885138</v>
       </c>
       <c r="P32" t="n">
         <v>1052.968135806666</v>
@@ -6722,28 +6724,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R32" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S32" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T32" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U32" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V32" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W32" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X32" t="n">
+        <v>1052.968135806666</v>
+      </c>
+      <c r="Y32" t="n">
         <v>818.7624959030018</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>552.8614515073789</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.05936271613333</v>
+        <v>383.1189801079781</v>
       </c>
       <c r="C33" t="n">
-        <v>21.05936271613333</v>
+        <v>208.6659508268511</v>
       </c>
       <c r="D33" t="n">
-        <v>21.05936271613333</v>
+        <v>208.6659508268511</v>
       </c>
       <c r="E33" t="n">
-        <v>21.05936271613333</v>
+        <v>208.6659508268511</v>
       </c>
       <c r="F33" t="n">
-        <v>21.05936271613333</v>
+        <v>208.6659508268511</v>
       </c>
       <c r="G33" t="n">
-        <v>21.05936271613333</v>
+        <v>208.6659508268511</v>
       </c>
       <c r="H33" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I33" t="n">
         <v>21.05936271613333</v>
@@ -6783,16 +6785,16 @@
         <v>158.2210505399122</v>
       </c>
       <c r="L33" t="n">
-        <v>398.8245784347747</v>
+        <v>339.9440834239259</v>
       </c>
       <c r="M33" t="n">
-        <v>659.4341920469246</v>
+        <v>339.9440834239259</v>
       </c>
       <c r="N33" t="n">
-        <v>920.0438056590746</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O33" t="n">
-        <v>1052.968135806666</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P33" t="n">
         <v>1052.968135806666</v>
@@ -6810,19 +6812,19 @@
         <v>1052.968135806666</v>
       </c>
       <c r="U33" t="n">
-        <v>824.7478070488712</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V33" t="n">
-        <v>824.7478070488712</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W33" t="n">
-        <v>570.5104503206696</v>
+        <v>798.7307790784648</v>
       </c>
       <c r="X33" t="n">
-        <v>362.6589501151368</v>
+        <v>590.879278872932</v>
       </c>
       <c r="Y33" t="n">
-        <v>189.2746997362014</v>
+        <v>383.1189801079781</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="C34" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="D34" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="E34" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="F34" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="G34" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="H34" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="I34" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="J34" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="K34" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="L34" t="n">
-        <v>54.48163939360295</v>
+        <v>924.9408477296159</v>
       </c>
       <c r="M34" t="n">
-        <v>100.1098670955239</v>
+        <v>970.5690754315369</v>
       </c>
       <c r="N34" t="n">
-        <v>150.0877739486497</v>
+        <v>1020.546982284663</v>
       </c>
       <c r="O34" t="n">
-        <v>180.2341645716483</v>
+        <v>1050.693372907661</v>
       </c>
       <c r="P34" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q34" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R34" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S34" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T34" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U34" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V34" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W34" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="X34" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="Y34" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>308.2498066576779</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="C35" t="n">
-        <v>308.2498066576779</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="D35" t="n">
-        <v>308.2498066576779</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="E35" t="n">
-        <v>308.2498066576779</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="F35" t="n">
-        <v>308.2498066576779</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="G35" t="n">
-        <v>308.2498066576779</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H35" t="n">
-        <v>42.34876226205506</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I35" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J35" t="n">
         <v>21.05936271613333</v>
@@ -6944,13 +6946,13 @@
         <v>330.254671414236</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N35" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O35" t="n">
-        <v>950.1371873885137</v>
+        <v>950.1371873885138</v>
       </c>
       <c r="P35" t="n">
         <v>1052.968135806666</v>
@@ -6965,22 +6967,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T35" t="n">
-        <v>828.027872890606</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U35" t="n">
-        <v>574.1508510533007</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V35" t="n">
-        <v>574.1508510533007</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W35" t="n">
-        <v>308.2498066576779</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X35" t="n">
-        <v>308.2498066576779</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="Y35" t="n">
-        <v>308.2498066576779</v>
+        <v>521.1660470154206</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.05936271613333</v>
+        <v>492.814165714308</v>
       </c>
       <c r="C36" t="n">
-        <v>21.05936271613333</v>
+        <v>492.814165714308</v>
       </c>
       <c r="D36" t="n">
-        <v>21.05936271613333</v>
+        <v>492.814165714308</v>
       </c>
       <c r="E36" t="n">
-        <v>21.05936271613333</v>
+        <v>333.5767107088525</v>
       </c>
       <c r="F36" t="n">
-        <v>21.05936271613333</v>
+        <v>187.0421527357375</v>
       </c>
       <c r="G36" t="n">
-        <v>21.05936271613333</v>
+        <v>48.361327806752</v>
       </c>
       <c r="H36" t="n">
         <v>21.05936271613333</v>
@@ -7014,22 +7016,22 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J36" t="n">
-        <v>24.95018035683209</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K36" t="n">
-        <v>158.2210505399122</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L36" t="n">
-        <v>339.9440834239259</v>
+        <v>394.9337607940759</v>
       </c>
       <c r="M36" t="n">
-        <v>600.5536970360758</v>
+        <v>655.5433744062259</v>
       </c>
       <c r="N36" t="n">
-        <v>600.5536970360758</v>
+        <v>916.1529880183758</v>
       </c>
       <c r="O36" t="n">
-        <v>860.9667611285679</v>
+        <v>916.1529880183758</v>
       </c>
       <c r="P36" t="n">
         <v>1052.968135806666</v>
@@ -7038,28 +7040,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R36" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S36" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T36" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="U36" t="n">
-        <v>824.7478070488712</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="V36" t="n">
-        <v>589.5956988171286</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="W36" t="n">
-        <v>335.3583420889269</v>
+        <v>700.6656659198409</v>
       </c>
       <c r="X36" t="n">
-        <v>228.8196614810873</v>
+        <v>492.814165714308</v>
       </c>
       <c r="Y36" t="n">
-        <v>21.05936271613333</v>
+        <v>492.814165714308</v>
       </c>
     </row>
     <row r="37">
@@ -7126,16 +7128,16 @@
         <v>182.5089274706534</v>
       </c>
       <c r="U37" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V37" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W37" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X37" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y37" t="n">
         <v>21.05936271613333</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>907.4554057415451</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="C38" t="n">
-        <v>907.4554057415451</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="D38" t="n">
-        <v>641.5543613459222</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="E38" t="n">
-        <v>641.5543613459222</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="F38" t="n">
-        <v>375.6533169502994</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="G38" t="n">
-        <v>109.7522725546766</v>
+        <v>25.1978476180042</v>
       </c>
       <c r="H38" t="n">
-        <v>21.05936271613333</v>
+        <v>25.1978476180042</v>
       </c>
       <c r="I38" t="n">
-        <v>21.05936271613333</v>
+        <v>25.1978476180042</v>
       </c>
       <c r="J38" t="n">
         <v>21.05936271613333</v>
@@ -7178,46 +7180,46 @@
         <v>135.7250809573682</v>
       </c>
       <c r="L38" t="n">
-        <v>330.254671414236</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N38" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O38" t="n">
-        <v>950.1371873885137</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P38" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q38" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="R38" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="S38" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="T38" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="U38" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="V38" t="n">
-        <v>907.4554057415451</v>
+        <v>822.9009808048728</v>
       </c>
       <c r="W38" t="n">
-        <v>907.4554057415451</v>
+        <v>822.9009808048728</v>
       </c>
       <c r="X38" t="n">
-        <v>907.4554057415451</v>
+        <v>556.9999364092499</v>
       </c>
       <c r="Y38" t="n">
-        <v>907.4554057415451</v>
+        <v>556.9999364092499</v>
       </c>
     </row>
     <row r="39">
@@ -7251,46 +7253,46 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J39" t="n">
-        <v>24.95018035683209</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K39" t="n">
-        <v>158.2210505399122</v>
+        <v>30.73231659501207</v>
       </c>
       <c r="L39" t="n">
-        <v>398.8245784347747</v>
+        <v>271.3358444898745</v>
       </c>
       <c r="M39" t="n">
-        <v>659.4341920469246</v>
+        <v>531.9454581020245</v>
       </c>
       <c r="N39" t="n">
-        <v>920.0438056590746</v>
+        <v>792.5550717141746</v>
       </c>
       <c r="O39" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="P39" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q39" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="R39" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="S39" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="T39" t="n">
-        <v>946.4294551988269</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="U39" t="n">
-        <v>718.2091264410317</v>
+        <v>926.0606266465643</v>
       </c>
       <c r="V39" t="n">
-        <v>483.0570182092889</v>
+        <v>690.9085184148216</v>
       </c>
       <c r="W39" t="n">
-        <v>228.8196614810873</v>
+        <v>436.6711616866201</v>
       </c>
       <c r="X39" t="n">
         <v>228.8196614810873</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1052.968135806666</v>
+        <v>891.5185710521465</v>
       </c>
       <c r="C40" t="n">
-        <v>1052.968135806666</v>
+        <v>891.5185710521465</v>
       </c>
       <c r="D40" t="n">
-        <v>902.8514963943306</v>
+        <v>891.5185710521465</v>
       </c>
       <c r="E40" t="n">
-        <v>891.5185710521463</v>
+        <v>891.5185710521465</v>
       </c>
       <c r="F40" t="n">
-        <v>891.5185710521463</v>
+        <v>891.5185710521465</v>
       </c>
       <c r="G40" t="n">
-        <v>891.5185710521463</v>
+        <v>891.5185710521465</v>
       </c>
       <c r="H40" t="n">
-        <v>891.5185710521463</v>
+        <v>891.5185710521465</v>
       </c>
       <c r="I40" t="n">
-        <v>891.5185710521463</v>
+        <v>891.5185710521465</v>
       </c>
       <c r="J40" t="n">
-        <v>891.5185710521463</v>
+        <v>891.5185710521465</v>
       </c>
       <c r="K40" t="n">
-        <v>891.5185710521463</v>
+        <v>891.5185710521465</v>
       </c>
       <c r="L40" t="n">
-        <v>924.9408477296159</v>
+        <v>924.9408477296162</v>
       </c>
       <c r="M40" t="n">
-        <v>970.5690754315369</v>
+        <v>970.5690754315372</v>
       </c>
       <c r="N40" t="n">
         <v>1020.546982284663</v>
       </c>
       <c r="O40" t="n">
-        <v>1050.693372907661</v>
+        <v>1050.693372907662</v>
       </c>
       <c r="P40" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q40" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="R40" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="S40" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="T40" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="U40" t="n">
-        <v>1052.968135806666</v>
+        <v>891.5185710521465</v>
       </c>
       <c r="V40" t="n">
-        <v>1052.968135806666</v>
+        <v>891.5185710521465</v>
       </c>
       <c r="W40" t="n">
-        <v>1052.968135806666</v>
+        <v>891.5185710521465</v>
       </c>
       <c r="X40" t="n">
-        <v>1052.968135806666</v>
+        <v>891.5185710521465</v>
       </c>
       <c r="Y40" t="n">
-        <v>1052.968135806666</v>
+        <v>891.5185710521465</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>156.9042988803458</v>
+        <v>430.3527841788582</v>
       </c>
       <c r="C41" t="n">
-        <v>11.51484476586674</v>
+        <v>430.3527841788582</v>
       </c>
       <c r="D41" t="n">
-        <v>11.51484476586674</v>
+        <v>430.3527841788582</v>
       </c>
       <c r="E41" t="n">
-        <v>11.51484476586674</v>
+        <v>430.3527841788582</v>
       </c>
       <c r="F41" t="n">
-        <v>11.51484476586674</v>
+        <v>302.293752994825</v>
       </c>
       <c r="G41" t="n">
-        <v>11.51484476586674</v>
+        <v>302.293752994825</v>
       </c>
       <c r="H41" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="I41" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="J41" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="K41" t="n">
         <v>126.1805630071016</v>
       </c>
       <c r="L41" t="n">
-        <v>126.1805630071016</v>
+        <v>268.6767669847026</v>
       </c>
       <c r="M41" t="n">
-        <v>268.6767669847026</v>
+        <v>411.1729709623036</v>
       </c>
       <c r="N41" t="n">
-        <v>411.1729709623036</v>
+        <v>472.9112898751847</v>
       </c>
       <c r="O41" t="n">
-        <v>553.6691749399046</v>
+        <v>472.9112898751847</v>
       </c>
       <c r="P41" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="Q41" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="R41" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="S41" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="T41" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="U41" t="n">
-        <v>447.683207109304</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="V41" t="n">
-        <v>302.2937529948249</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="W41" t="n">
-        <v>156.9042988803458</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="X41" t="n">
-        <v>156.9042988803458</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="Y41" t="n">
-        <v>156.9042988803458</v>
+        <v>575.7422382933373</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>156.9042988803458</v>
+        <v>302.293752994825</v>
       </c>
       <c r="C42" t="n">
-        <v>11.51484476586674</v>
+        <v>302.293752994825</v>
       </c>
       <c r="D42" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="E42" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="F42" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="G42" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="H42" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="I42" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="J42" t="n">
-        <v>15.4056624065655</v>
+        <v>15.40566240656551</v>
       </c>
       <c r="K42" t="n">
-        <v>148.2536263605342</v>
+        <v>148.6765325896457</v>
       </c>
       <c r="L42" t="n">
-        <v>290.7498303381352</v>
+        <v>148.6765325896457</v>
       </c>
       <c r="M42" t="n">
-        <v>433.2460343157362</v>
+        <v>290.7498303381353</v>
       </c>
       <c r="N42" t="n">
-        <v>433.2460343157362</v>
+        <v>433.2460343157363</v>
       </c>
       <c r="O42" t="n">
-        <v>575.7422382933372</v>
+        <v>433.2460343157363</v>
       </c>
       <c r="P42" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="Q42" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="R42" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="S42" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788582</v>
       </c>
       <c r="T42" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788582</v>
       </c>
       <c r="U42" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788582</v>
       </c>
       <c r="V42" t="n">
-        <v>575.7422382933372</v>
+        <v>430.3527841788582</v>
       </c>
       <c r="W42" t="n">
-        <v>430.3527841788581</v>
+        <v>430.3527841788582</v>
       </c>
       <c r="X42" t="n">
-        <v>430.3527841788581</v>
+        <v>430.3527841788582</v>
       </c>
       <c r="Y42" t="n">
-        <v>284.963330064379</v>
+        <v>430.3527841788582</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="C43" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="D43" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="E43" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="F43" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="G43" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="H43" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="I43" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="J43" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="K43" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="L43" t="n">
-        <v>44.93712144333637</v>
+        <v>44.93712144333638</v>
       </c>
       <c r="M43" t="n">
-        <v>90.56534914525733</v>
+        <v>90.56534914525734</v>
       </c>
       <c r="N43" t="n">
         <v>140.5432559983831</v>
@@ -7585,34 +7587,34 @@
         <v>170.6896466213817</v>
       </c>
       <c r="P43" t="n">
-        <v>172.9644095203868</v>
+        <v>172.9644095203869</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.9644095203868</v>
+        <v>172.9644095203869</v>
       </c>
       <c r="R43" t="n">
-        <v>172.9644095203868</v>
+        <v>172.9644095203869</v>
       </c>
       <c r="S43" t="n">
-        <v>172.9644095203868</v>
+        <v>172.9644095203869</v>
       </c>
       <c r="T43" t="n">
-        <v>172.9644095203868</v>
+        <v>172.9644095203869</v>
       </c>
       <c r="U43" t="n">
-        <v>27.57495540590773</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="V43" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="W43" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="X43" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="Y43" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>302.2937529948249</v>
+        <v>15.65332966773761</v>
       </c>
       <c r="C44" t="n">
-        <v>302.2937529948249</v>
+        <v>15.65332966773761</v>
       </c>
       <c r="D44" t="n">
-        <v>302.2937529948249</v>
+        <v>15.65332966773761</v>
       </c>
       <c r="E44" t="n">
-        <v>302.2937529948249</v>
+        <v>15.65332966773761</v>
       </c>
       <c r="F44" t="n">
-        <v>156.9042988803458</v>
+        <v>15.65332966773761</v>
       </c>
       <c r="G44" t="n">
-        <v>11.51484476586674</v>
+        <v>15.65332966773761</v>
       </c>
       <c r="H44" t="n">
-        <v>11.51484476586674</v>
+        <v>15.65332966773761</v>
       </c>
       <c r="I44" t="n">
-        <v>11.51484476586674</v>
+        <v>15.65332966773761</v>
       </c>
       <c r="J44" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="K44" t="n">
-        <v>126.1805630071016</v>
+        <v>45.42267794238171</v>
       </c>
       <c r="L44" t="n">
-        <v>268.6767669847026</v>
+        <v>187.9188819199827</v>
       </c>
       <c r="M44" t="n">
-        <v>411.1729709623036</v>
+        <v>187.9188819199827</v>
       </c>
       <c r="N44" t="n">
-        <v>411.1729709623036</v>
+        <v>330.4150858975837</v>
       </c>
       <c r="O44" t="n">
-        <v>472.9112898751846</v>
+        <v>472.9112898751847</v>
       </c>
       <c r="P44" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="Q44" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="R44" t="n">
-        <v>575.7422382933372</v>
+        <v>451.8216920111749</v>
       </c>
       <c r="S44" t="n">
-        <v>575.7422382933372</v>
+        <v>306.4322378966958</v>
       </c>
       <c r="T44" t="n">
-        <v>575.7422382933372</v>
+        <v>161.0427837822167</v>
       </c>
       <c r="U44" t="n">
-        <v>575.7422382933372</v>
+        <v>161.0427837822167</v>
       </c>
       <c r="V44" t="n">
-        <v>575.7422382933372</v>
+        <v>161.0427837822167</v>
       </c>
       <c r="W44" t="n">
-        <v>575.7422382933372</v>
+        <v>161.0427837822167</v>
       </c>
       <c r="X44" t="n">
-        <v>447.683207109304</v>
+        <v>15.65332966773761</v>
       </c>
       <c r="Y44" t="n">
-        <v>447.683207109304</v>
+        <v>15.65332966773761</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>11.51484476586674</v>
+        <v>430.3527841788582</v>
       </c>
       <c r="C45" t="n">
-        <v>11.51484476586674</v>
+        <v>284.9633300643791</v>
       </c>
       <c r="D45" t="n">
-        <v>11.51484476586674</v>
+        <v>284.9633300643791</v>
       </c>
       <c r="E45" t="n">
-        <v>11.51484476586674</v>
+        <v>139.5738759499</v>
       </c>
       <c r="F45" t="n">
-        <v>11.51484476586674</v>
+        <v>139.5738759499</v>
       </c>
       <c r="G45" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="H45" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="I45" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="J45" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="K45" t="n">
         <v>144.7857149489469</v>
       </c>
       <c r="L45" t="n">
-        <v>287.2819189265479</v>
+        <v>144.7857149489469</v>
       </c>
       <c r="M45" t="n">
         <v>287.2819189265479</v>
       </c>
       <c r="N45" t="n">
-        <v>290.7498303381352</v>
+        <v>429.7781229041489</v>
       </c>
       <c r="O45" t="n">
-        <v>433.2460343157362</v>
+        <v>572.2743268817499</v>
       </c>
       <c r="P45" t="n">
-        <v>575.7422382933372</v>
+        <v>572.2743268817499</v>
       </c>
       <c r="Q45" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="R45" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="S45" t="n">
-        <v>575.7422382933372</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="T45" t="n">
-        <v>447.683207109304</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="U45" t="n">
-        <v>447.683207109304</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="V45" t="n">
-        <v>447.683207109304</v>
+        <v>575.7422382933373</v>
       </c>
       <c r="W45" t="n">
-        <v>302.2937529948249</v>
+        <v>430.3527841788582</v>
       </c>
       <c r="X45" t="n">
-        <v>156.9042988803458</v>
+        <v>430.3527841788582</v>
       </c>
       <c r="Y45" t="n">
-        <v>11.51484476586674</v>
+        <v>430.3527841788582</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="C46" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="D46" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="E46" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="F46" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="G46" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="H46" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="I46" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="J46" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="K46" t="n">
-        <v>11.51484476586674</v>
+        <v>11.51484476586675</v>
       </c>
       <c r="L46" t="n">
-        <v>44.93712144333637</v>
+        <v>44.93712144333638</v>
       </c>
       <c r="M46" t="n">
-        <v>90.56534914525733</v>
+        <v>90.56534914525734</v>
       </c>
       <c r="N46" t="n">
         <v>140.5432559983831</v>
@@ -7822,34 +7824,34 @@
         <v>170.6896466213817</v>
       </c>
       <c r="P46" t="n">
-        <v>172.9644095203868</v>
+        <v>172.9644095203869</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.9644095203868</v>
+        <v>172.9644095203869</v>
       </c>
       <c r="R46" t="n">
-        <v>172.9644095203868</v>
+        <v>172.9644095203869</v>
       </c>
       <c r="S46" t="n">
-        <v>172.9644095203868</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="T46" t="n">
-        <v>172.9644095203868</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="U46" t="n">
-        <v>156.9042988803458</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="V46" t="n">
-        <v>156.9042988803458</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="W46" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="X46" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
       <c r="Y46" t="n">
-        <v>11.51484476586674</v>
+        <v>156.9042988803459</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>379.7019745433215</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>374.281792800607</v>
       </c>
       <c r="N2" t="n">
-        <v>373.3486231699252</v>
+        <v>316.847330636283</v>
       </c>
       <c r="O2" t="n">
-        <v>374.033770995021</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>265.2974156378405</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,16 +8066,16 @@
         <v>282.4899393532085</v>
       </c>
       <c r="M3" t="n">
-        <v>227.4702632160606</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>216.6779413773755</v>
       </c>
       <c r="O3" t="n">
-        <v>286.5318040177788</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>277.9099669876645</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>323.2006820096793</v>
+        <v>379.7019745433215</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>277.9005022198147</v>
       </c>
       <c r="N5" t="n">
         <v>373.3486231699252</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>205.8659067332865</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>286.0695934953526</v>
       </c>
       <c r="N6" t="n">
-        <v>216.6779413773756</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>286.5318040177788</v>
+        <v>286.5318040177787</v>
       </c>
       <c r="P6" t="n">
-        <v>277.9099669876646</v>
+        <v>277.9099669876645</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,13 +8461,13 @@
         <v>379.7019745433215</v>
       </c>
       <c r="M8" t="n">
-        <v>374.281792800607</v>
+        <v>264.4106531098436</v>
       </c>
       <c r="N8" t="n">
         <v>373.3486231699252</v>
       </c>
       <c r="O8" t="n">
-        <v>264.1626313042576</v>
+        <v>374.033770995021</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8535,19 +8537,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>206.5788475388017</v>
       </c>
       <c r="M9" t="n">
-        <v>210.1585016809459</v>
+        <v>286.0695934953526</v>
       </c>
       <c r="N9" t="n">
         <v>275.2772716566676</v>
       </c>
       <c r="O9" t="n">
-        <v>286.5318040177788</v>
+        <v>286.5318040177787</v>
       </c>
       <c r="P9" t="n">
-        <v>277.9099669876646</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L11" t="n">
-        <v>221.1666787354324</v>
+        <v>365.1022383087667</v>
       </c>
       <c r="M11" t="n">
-        <v>358.0367731716555</v>
+        <v>248.3515501402554</v>
       </c>
       <c r="N11" t="n">
         <v>356.8407421397321</v>
       </c>
       <c r="O11" t="n">
-        <v>276.872225769109</v>
+        <v>358.4458470466038</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8769,19 +8771,19 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>191.5539708833257</v>
       </c>
       <c r="L12" t="n">
-        <v>271.7420383163263</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M12" t="n">
-        <v>200.6160338017996</v>
+        <v>273.5272999310524</v>
       </c>
       <c r="N12" t="n">
         <v>118.4674613291454</v>
       </c>
       <c r="O12" t="n">
-        <v>130.8188201934042</v>
+        <v>274.7543797667385</v>
       </c>
       <c r="P12" t="n">
         <v>268.4575457101416</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>208.3214547517356</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>365.1022383087667</v>
@@ -8936,10 +8938,10 @@
         <v>358.0367731716555</v>
       </c>
       <c r="N14" t="n">
-        <v>356.8407421397321</v>
+        <v>275.2671208622372</v>
       </c>
       <c r="O14" t="n">
-        <v>248.7606240152038</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,19 +9014,19 @@
         <v>271.7420383163263</v>
       </c>
       <c r="M15" t="n">
-        <v>273.5272999310524</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N15" t="n">
-        <v>261.9758428932763</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O15" t="n">
-        <v>130.8188201934042</v>
+        <v>274.7543797667385</v>
       </c>
       <c r="P15" t="n">
-        <v>124.5219861368073</v>
+        <v>195.5462795808887</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9176,10 +9178,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627455</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9254,16 @@
         <v>392.8337743093848</v>
       </c>
       <c r="N18" t="n">
-        <v>381.709495280812</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>257.9728648419856</v>
       </c>
       <c r="P18" t="n">
-        <v>130.3625277915347</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928326</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9486,7 +9488,7 @@
         <v>127.8064787429921</v>
       </c>
       <c r="M21" t="n">
-        <v>371.3531930724112</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N21" t="n">
         <v>381.709495280812</v>
@@ -9495,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>296.9821874029635</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9720,13 +9722,13 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L24" t="n">
-        <v>186.6702232840452</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>392.8337743093848</v>
       </c>
       <c r="N24" t="n">
-        <v>381.709495280812</v>
+        <v>197.5393732613981</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>392.8337743093848</v>
+        <v>260.8744387036295</v>
       </c>
       <c r="N27" t="n">
-        <v>381.709495280812</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O27" t="n">
-        <v>188.6716133934488</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>129.8481964236088</v>
       </c>
       <c r="L30" t="n">
-        <v>127.8064787429921</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>392.8337743093848</v>
       </c>
       <c r="N30" t="n">
-        <v>364.1590328728271</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>130.3625277915347</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>311.3650978177534</v>
       </c>
       <c r="M33" t="n">
-        <v>392.8337743093848</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N33" t="n">
         <v>381.709495280812</v>
       </c>
       <c r="O33" t="n">
-        <v>265.0858203424869</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>133.663080786811</v>
@@ -10662,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>311.3650978177534</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>392.8337743093848</v>
       </c>
       <c r="N36" t="n">
-        <v>118.4674613291454</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>262.7191051148786</v>
       </c>
       <c r="Q36" t="n">
         <v>133.663080786811</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>135.688738078336</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,10 +10913,10 @@
         <v>392.8337743093848</v>
       </c>
       <c r="N39" t="n">
-        <v>381.709495280812</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O39" t="n">
-        <v>265.0858203424869</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>124.5219861368073</v>
@@ -11063,19 +11065,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>221.1666787354324</v>
+        <v>365.1022383087667</v>
       </c>
       <c r="M41" t="n">
         <v>358.0367731716555</v>
       </c>
       <c r="N41" t="n">
-        <v>356.8407421397321</v>
+        <v>275.2671208622373</v>
       </c>
       <c r="O41" t="n">
-        <v>358.4458470466038</v>
+        <v>214.5102874732695</v>
       </c>
       <c r="P41" t="n">
-        <v>240.2250868939877</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.0380590033752</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>271.7420383163263</v>
+        <v>127.806478742992</v>
       </c>
       <c r="M42" t="n">
-        <v>273.5272999310524</v>
+        <v>273.1001219218491</v>
       </c>
       <c r="N42" t="n">
-        <v>118.4674613291454</v>
+        <v>262.4030209024797</v>
       </c>
       <c r="O42" t="n">
-        <v>274.7543797667386</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P42" t="n">
-        <v>124.5219861368073</v>
+        <v>268.4575457101416</v>
       </c>
       <c r="Q42" t="n">
         <v>133.663080786811</v>
@@ -11297,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>242.5717912936699</v>
       </c>
       <c r="L44" t="n">
         <v>365.1022383087667</v>
       </c>
       <c r="M44" t="n">
-        <v>358.0367731716555</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N44" t="n">
-        <v>212.9051825663978</v>
+        <v>356.8407421397321</v>
       </c>
       <c r="O44" t="n">
-        <v>276.872225769109</v>
+        <v>358.4458470466039</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11379,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>271.7420383163263</v>
+        <v>127.806478742992</v>
       </c>
       <c r="M45" t="n">
-        <v>129.5917403577182</v>
+        <v>273.5272999310524</v>
       </c>
       <c r="N45" t="n">
-        <v>121.9704021489306</v>
+        <v>262.4030209024797</v>
       </c>
       <c r="O45" t="n">
         <v>274.7543797667386</v>
       </c>
       <c r="P45" t="n">
-        <v>268.4575457101416</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.663080786811</v>
+        <v>137.1660216065963</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22550,19 +22552,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>210.7474820473487</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>262.9404861683771</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>212.6963612435744</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22589,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>33.08137628350167</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>65.08451001291107</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>79.16028999079708</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>205.3054091440787</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>242.3023790827193</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.75474277767455</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22677,22 +22679,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>56.22916912148733</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>82.00582250764054</v>
       </c>
       <c r="V3" t="n">
-        <v>88.86502757609097</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>107.7594235875853</v>
       </c>
       <c r="X3" t="n">
-        <v>61.83742563014317</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>61.74713620397006</v>
+        <v>78.90425490511154</v>
       </c>
     </row>
     <row r="4">
@@ -22750,13 +22752,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.9554007912877</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>221.3373321976732</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>210.7474820473487</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>237.9948104989275</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>205.3054091440787</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>242.9526598062762</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>242.3023790827193</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.59762407653304</v>
+        <v>22.59762407653307</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22875,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>69.00818513185294</v>
+        <v>68.2615938055951</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22884,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>27.74761153050352</v>
+        <v>27.74761153050355</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22963,7 +22965,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>46.33425578299912</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22984,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>255.9554007912878</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>210.7474820473487</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>280.0976048695186</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>271.3671779418007</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>195.5392425424328</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>66.54032999707161</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23081,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>205.3054091440787</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>225.7955411051348</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>39.75474277767452</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>28.77293941498147</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>13.70952088206664</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23115,13 +23117,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>75.60022754197661</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23157,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>88.86502757609099</v>
       </c>
       <c r="W9" t="n">
-        <v>107.7594235875853</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>61.8374256301432</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.74713620397006</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23221,10 +23223,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>238.7982820901463</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>221.3373321976733</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>227.9046007484901</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>262.9404861683772</v>
       </c>
       <c r="G11" t="n">
         <v>415.2102214038314</v>
@@ -23279,7 +23281,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J11" t="n">
-        <v>4.097100052852173</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.122043191135873</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S11" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T11" t="n">
-        <v>78.75530071356522</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U11" t="n">
-        <v>107.4026920455979</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V11" t="n">
-        <v>200.9738175979421</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.59762407653304</v>
+        <v>22.59762407653307</v>
       </c>
       <c r="C12" t="n">
-        <v>45.93005811612295</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23352,7 +23354,7 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H12" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>87.69233988828964</v>
@@ -23397,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>236.6739160660128</v>
       </c>
       <c r="X12" t="n">
-        <v>61.83742563014317</v>
+        <v>61.8374256301432</v>
       </c>
       <c r="Y12" t="n">
-        <v>61.74713620397006</v>
+        <v>61.74713620397009</v>
       </c>
     </row>
     <row r="13">
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R13" t="n">
-        <v>98.27937439571069</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S13" t="n">
-        <v>223.2933741908973</v>
+        <v>207.3938646572567</v>
       </c>
       <c r="T13" t="n">
-        <v>227.7682732010226</v>
+        <v>83.83271362768835</v>
       </c>
       <c r="U13" t="n">
         <v>286.3167657450791</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>238.7982820901463</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>221.3373321976733</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>17.27916189227733</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S14" t="n">
-        <v>62.97629912657854</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T14" t="n">
-        <v>78.75530071356522</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U14" t="n">
-        <v>107.4026920455979</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>225.7955411051348</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>259.4594977838608</v>
       </c>
     </row>
     <row r="15">
@@ -23571,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.59762407653304</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>3.509505991304479</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>1.133652820049576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>10.51557580750287</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>111.757373777286</v>
@@ -23619,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>170.7637213332854</v>
+        <v>134.4281995944916</v>
       </c>
       <c r="T15" t="n">
         <v>199.9652070090748</v>
@@ -23671,10 +23673,10 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I16" t="n">
-        <v>10.26691092887646</v>
+        <v>10.26691092887648</v>
       </c>
       <c r="J16" t="n">
-        <v>74.52565292475089</v>
+        <v>74.5256529247509</v>
       </c>
       <c r="K16" t="n">
         <v>17.44799951871617</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>66.65092196225351</v>
       </c>
       <c r="V17" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>125.9637348411067</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23826,10 +23828,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H18" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>87.69233988828964</v>
+        <v>13.7191914359651</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23862,13 +23864,13 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T18" t="n">
-        <v>94.58220263348665</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23877,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901636</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23984,7 +23986,7 @@
         <v>415.2102214038314</v>
       </c>
       <c r="H20" t="n">
-        <v>75.28528753921177</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I20" t="n">
         <v>206.909162189371</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U20" t="n">
-        <v>66.65092196225373</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>154.3743551514256</v>
       </c>
     </row>
     <row r="21">
@@ -24051,13 +24053,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.2940166796957</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>25.2367268663734</v>
       </c>
       <c r="T21" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>162.4651789847349</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>8.114410708933974</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H22" t="n">
         <v>161.8582038473137</v>
@@ -24172,7 +24174,7 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R22" t="n">
-        <v>175.4274210366964</v>
+        <v>15.59235192972145</v>
       </c>
       <c r="S22" t="n">
         <v>223.2933741908973</v>
@@ -24215,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>325.5914491747009</v>
+        <v>386.0187244793066</v>
       </c>
       <c r="G23" t="n">
-        <v>415.2102214038314</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H23" t="n">
         <v>75.28528753921177</v>
@@ -24227,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T23" t="n">
         <v>222.6908602868995</v>
@@ -24288,13 +24290,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.2940166796957</v>
@@ -24330,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S24" t="n">
-        <v>162.4651789847349</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>106.2000117548003</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U25" t="n">
-        <v>126.4816966381042</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296161</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24449,22 +24451,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>143.6340117900448</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>151.9681874521648</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H26" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I26" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>144.0576027644702</v>
+        <v>10.31805019995798</v>
       </c>
       <c r="S26" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>158.4714552042778</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>130.5173345098348</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>68.08056120340916</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24534,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T27" t="n">
         <v>199.9652070090748</v>
@@ -24582,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24604,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>135.2143665578067</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24655,7 +24657,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3167657450791</v>
+        <v>126.4816966381042</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>143.6340117900448</v>
+        <v>323.1671650544058</v>
       </c>
       <c r="G29" t="n">
         <v>415.2102214038314</v>
@@ -24701,7 +24703,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J29" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U29" t="n">
-        <v>185.8353531494501</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="30">
@@ -24762,16 +24764,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>111.757373777286</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>17.18335063720079</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S30" t="n">
         <v>170.7637213332854</v>
@@ -24813,19 +24815,19 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9381254702172</v>
+        <v>131.0434978418917</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>126.6879292296162</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>58.74958424511996</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G32" t="n">
-        <v>415.2102214038314</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H32" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I32" t="n">
         <v>206.909162189371</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S32" t="n">
         <v>206.9118586999128</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>281.9251199383112</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>122.995904704387</v>
+        <v>154.3743551514256</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25011,10 +25013,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H33" t="n">
-        <v>111.757373777286</v>
+        <v>13.7191914359651</v>
       </c>
       <c r="I33" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25050,7 +25052,7 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>34.03228790215829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25135,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296161</v>
       </c>
       <c r="X34" t="n">
-        <v>65.87458628206232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25163,19 +25165,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>175.0124622370836</v>
       </c>
       <c r="G35" t="n">
-        <v>415.2102214038314</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H35" t="n">
-        <v>75.28528753921177</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I35" t="n">
-        <v>189.9297566917606</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25205,22 +25207,22 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="36">
@@ -25239,16 +25241,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>111.757373777286</v>
+        <v>84.7284283375735</v>
       </c>
       <c r="I36" t="n">
         <v>87.69233988828964</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>170.7637213332854</v>
@@ -25287,19 +25289,19 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>100.2996914017162</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25366,7 +25368,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3167657450791</v>
+        <v>126.4816966381042</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>58.74958424511996</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,31 +25390,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>119.4918077118139</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>91.44100766901636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>143.6340117900448</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>151.9681874521648</v>
+        <v>151.9681874521647</v>
       </c>
       <c r="H38" t="n">
-        <v>250.7213407507206</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I38" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J38" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S38" t="n">
         <v>206.9118586999128</v>
@@ -25448,13 +25450,13 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>99.98577501835905</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>97.08446202703757</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S39" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T39" t="n">
-        <v>94.4919132073137</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>100.2996914017159</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>135.2143665578067</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.6870224659892</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R40" t="n">
         <v>175.4274210366964</v>
@@ -25603,7 +25605,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3167657450791</v>
+        <v>126.4816966381042</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>238.7982820901462</v>
       </c>
       <c r="C41" t="n">
-        <v>221.3373321976732</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,19 +25639,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>280.0976048695186</v>
       </c>
       <c r="G41" t="n">
         <v>415.2102214038314</v>
       </c>
       <c r="H41" t="n">
-        <v>338.5273214908784</v>
+        <v>194.591761917544</v>
       </c>
       <c r="I41" t="n">
-        <v>206.909162189371</v>
+        <v>62.97360261603663</v>
       </c>
       <c r="J41" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852159</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>144.0576027644702</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S41" t="n">
         <v>206.9118586999128</v>
@@ -25682,13 +25684,13 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U41" t="n">
-        <v>124.5598107467393</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V41" t="n">
-        <v>183.8166988968006</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>205.3054091440787</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>39.75474277767455</v>
+        <v>39.75474277767449</v>
       </c>
       <c r="C42" t="n">
-        <v>28.77293941498144</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>3.509505991304422</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>13.70952088206661</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>97.08446202703757</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S42" t="n">
-        <v>170.7637213332854</v>
+        <v>26.82816175995112</v>
       </c>
       <c r="T42" t="n">
         <v>199.9652070090748</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>107.7594235875853</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>61.74713620397006</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25804,7 +25806,7 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I43" t="n">
-        <v>154.2024705022108</v>
+        <v>10.26691092887643</v>
       </c>
       <c r="J43" t="n">
         <v>90.42516245839145</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.6870224659892</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R43" t="n">
         <v>175.4274210366964</v>
@@ -25840,10 +25842,10 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U43" t="n">
-        <v>142.3812061717448</v>
+        <v>270.4172562114385</v>
       </c>
       <c r="V43" t="n">
-        <v>236.2381337901874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>238.7982820901463</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>262.9404861683771</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>271.2746618304971</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H44" t="n">
         <v>338.5273214908784</v>
@@ -25886,7 +25888,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J44" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>144.0576027644702</v>
+        <v>21.3762619451294</v>
       </c>
       <c r="S44" t="n">
-        <v>206.9118586999128</v>
+        <v>62.97629912657851</v>
       </c>
       <c r="T44" t="n">
-        <v>222.6908602868995</v>
+        <v>78.75530071356519</v>
       </c>
       <c r="U44" t="n">
         <v>251.3382516189322</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>242.9526598062762</v>
+        <v>225.7955411051347</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>28.77293941498141</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>13.70952088206661</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2940166796957</v>
+        <v>10.51557580750278</v>
       </c>
       <c r="H45" t="n">
         <v>111.757373777286</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>97.08446202703757</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S45" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T45" t="n">
-        <v>73.18676613688197</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U45" t="n">
         <v>225.9381254702172</v>
@@ -26007,10 +26009,10 @@
         <v>107.7594235875853</v>
       </c>
       <c r="X45" t="n">
-        <v>61.83742563014317</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>61.74713620397006</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>35.89642060860297</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26065,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.6870224659892</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R46" t="n">
         <v>175.4274210366964</v>
       </c>
       <c r="S46" t="n">
-        <v>223.2933741908973</v>
+        <v>207.3938646572566</v>
       </c>
       <c r="T46" t="n">
         <v>227.7682732010226</v>
       </c>
       <c r="U46" t="n">
-        <v>270.4172562114385</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>142.5874387632567</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>408314.6227743074</v>
+        <v>408314.6227743072</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>408314.6227743074</v>
+        <v>408314.6227743073</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>411321.208127272</v>
+        <v>411321.2081272718</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>492015.2604206147</v>
+        <v>492015.2604206148</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>492015.2604206147</v>
+        <v>492015.2604206146</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>492015.2604206146</v>
+        <v>492015.2604206147</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>492015.2604206146</v>
+        <v>492015.2604206147</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>411321.2081272718</v>
+        <v>411321.208127272</v>
       </c>
     </row>
   </sheetData>
@@ -26320,10 +26322,10 @@
         <v>143179.3414375948</v>
       </c>
       <c r="E2" t="n">
+        <v>145096.8720731844</v>
+      </c>
+      <c r="F2" t="n">
         <v>145096.8720731843</v>
-      </c>
-      <c r="F2" t="n">
-        <v>145096.8720731844</v>
       </c>
       <c r="G2" t="n">
         <v>173340.1505849977</v>
@@ -26335,25 +26337,25 @@
         <v>173340.1505849977</v>
       </c>
       <c r="J2" t="n">
+        <v>173340.1505849976</v>
+      </c>
+      <c r="K2" t="n">
         <v>173340.1505849977</v>
-      </c>
-      <c r="K2" t="n">
-        <v>173340.1505849976</v>
       </c>
       <c r="L2" t="n">
         <v>173340.1505849977</v>
       </c>
       <c r="M2" t="n">
-        <v>173340.1505849976</v>
+        <v>173340.1505849977</v>
       </c>
       <c r="N2" t="n">
         <v>173340.1505849977</v>
       </c>
       <c r="O2" t="n">
-        <v>145096.8720731843</v>
+        <v>145096.8720731844</v>
       </c>
       <c r="P2" t="n">
-        <v>145096.8720731843</v>
+        <v>145096.8720731844</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48236.11653089453</v>
+        <v>48236.1165308945</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>32700.11502998521</v>
+        <v>32700.11502998522</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50475.45784241413</v>
+        <v>50475.45784241412</v>
       </c>
       <c r="C4" t="n">
-        <v>50475.45784241414</v>
+        <v>50475.45784241412</v>
       </c>
       <c r="D4" t="n">
         <v>50475.45784241413</v>
       </c>
       <c r="E4" t="n">
-        <v>48689.19541637823</v>
+        <v>48689.19541637822</v>
       </c>
       <c r="F4" t="n">
-        <v>48689.19541637823</v>
+        <v>48689.19541637824</v>
       </c>
       <c r="G4" t="n">
         <v>58861.50162459179</v>
@@ -26451,10 +26453,10 @@
         <v>58861.50162459179</v>
       </c>
       <c r="N4" t="n">
-        <v>58861.50162459179</v>
+        <v>58861.5016245918</v>
       </c>
       <c r="O4" t="n">
-        <v>48689.19541637823</v>
+        <v>48689.19541637824</v>
       </c>
       <c r="P4" t="n">
         <v>48689.19541637824</v>
@@ -26476,10 +26478,10 @@
         <v>42378.88202205872</v>
       </c>
       <c r="E5" t="n">
-        <v>9252.973764630733</v>
+        <v>9252.973764630731</v>
       </c>
       <c r="F5" t="n">
-        <v>9252.973764630733</v>
+        <v>9252.973764630731</v>
       </c>
       <c r="G5" t="n">
         <v>16506.80740683333</v>
@@ -26503,13 +26505,13 @@
         <v>16506.80740683333</v>
       </c>
       <c r="N5" t="n">
-        <v>16506.80740683333</v>
+        <v>16506.80740683334</v>
       </c>
       <c r="O5" t="n">
-        <v>9252.973764630733</v>
+        <v>9252.973764630735</v>
       </c>
       <c r="P5" t="n">
-        <v>9252.973764630733</v>
+        <v>9252.973764630735</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2088.885042227404</v>
+        <v>2088.885042227441</v>
       </c>
       <c r="C6" t="n">
-        <v>50325.00157312196</v>
+        <v>50325.00157312195</v>
       </c>
       <c r="D6" t="n">
-        <v>50325.00157312198</v>
+        <v>50325.00157312195</v>
       </c>
       <c r="E6" t="n">
-        <v>68665.68220146076</v>
+        <v>68665.68220146082</v>
       </c>
       <c r="F6" t="n">
-        <v>87154.70289217541</v>
+        <v>87154.70289217535</v>
       </c>
       <c r="G6" t="n">
-        <v>65271.72652358736</v>
+        <v>65271.72652358733</v>
       </c>
       <c r="H6" t="n">
         <v>97971.84155357251</v>
       </c>
       <c r="I6" t="n">
-        <v>97971.84155357254</v>
+        <v>97971.84155357257</v>
       </c>
       <c r="J6" t="n">
-        <v>60311.96600456705</v>
+        <v>60311.96600456702</v>
       </c>
       <c r="K6" t="n">
-        <v>97971.84155357252</v>
+        <v>97971.84155357257</v>
       </c>
       <c r="L6" t="n">
-        <v>97971.84155357254</v>
+        <v>97971.84155357257</v>
       </c>
       <c r="M6" t="n">
-        <v>97971.84155357245</v>
+        <v>97971.84155357257</v>
       </c>
       <c r="N6" t="n">
-        <v>97971.84155357254</v>
+        <v>97971.84155357259</v>
       </c>
       <c r="O6" t="n">
-        <v>87154.70289217538</v>
+        <v>87154.70289217541</v>
       </c>
       <c r="P6" t="n">
-        <v>87154.70289217535</v>
+        <v>87154.70289217541</v>
       </c>
     </row>
   </sheetData>
@@ -26771,13 +26773,13 @@
         <v>23.01338268678932</v>
       </c>
       <c r="N3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678936</v>
       </c>
       <c r="O3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678936</v>
       </c>
       <c r="P3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678936</v>
       </c>
     </row>
     <row r="4">
@@ -26823,7 +26825,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="N4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="O4" t="n">
         <v>143.9355595733343</v>
@@ -31750,19 +31752,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09251611130367558</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9474806248887679</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I11" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J11" t="n">
-        <v>7.852189301760344</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K11" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L11" t="n">
         <v>14.5997362345548</v>
@@ -31783,10 +31785,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>5.811515176679516</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S11" t="n">
-        <v>2.108210886332509</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T11" t="n">
         <v>0.4049892772318401</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0495004835149808</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H12" t="n">
         <v>0.4780704592104726</v>
@@ -31838,7 +31840,7 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J12" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K12" t="n">
         <v>7.993242550750212</v>
@@ -31856,7 +31858,7 @@
         <v>11.77742425104019</v>
       </c>
       <c r="P12" t="n">
-        <v>9.452421277522957</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q12" t="n">
         <v>6.318693299210532</v>
@@ -31929,7 +31931,7 @@
         <v>6.505241928988658</v>
       </c>
       <c r="N13" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O13" t="n">
         <v>5.865771705150827</v>
@@ -31947,7 +31949,7 @@
         <v>0.7232238460750018</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1773162272588684</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U13" t="n">
         <v>0.002263611411815345</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367576</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887696</v>
       </c>
       <c r="I38" t="n">
-        <v>3.566727381034957</v>
+        <v>3.566727381034963</v>
       </c>
       <c r="J38" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760358</v>
       </c>
       <c r="K38" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324495</v>
       </c>
       <c r="L38" t="n">
-        <v>14.5997362345548</v>
+        <v>14.59973623455483</v>
       </c>
       <c r="M38" t="n">
-        <v>16.24501962895154</v>
+        <v>16.24501962895157</v>
       </c>
       <c r="N38" t="n">
-        <v>16.50788103019311</v>
+        <v>16.50788103019314</v>
       </c>
       <c r="O38" t="n">
-        <v>15.58792394841718</v>
+        <v>15.58792394841721</v>
       </c>
       <c r="P38" t="n">
-        <v>13.30393245060769</v>
+        <v>13.30393245060771</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544822</v>
       </c>
       <c r="R38" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679528</v>
       </c>
       <c r="S38" t="n">
-        <v>2.10821088633251</v>
+        <v>2.108210886332514</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.4049892772318409</v>
       </c>
       <c r="U38" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.00740128890429406</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.0495004835149809</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.4780704592104735</v>
       </c>
       <c r="I39" t="n">
-        <v>1.704292963125436</v>
+        <v>1.704292963125439</v>
       </c>
       <c r="J39" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246507</v>
       </c>
       <c r="K39" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750227</v>
       </c>
       <c r="L39" t="n">
-        <v>10.74790103688213</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M39" t="n">
-        <v>12.54229356430018</v>
+        <v>12.5422935643002</v>
       </c>
       <c r="N39" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418795</v>
       </c>
       <c r="O39" t="n">
-        <v>11.77742425104019</v>
+        <v>11.77742425104021</v>
       </c>
       <c r="P39" t="n">
-        <v>9.452421277522959</v>
+        <v>9.452421277522976</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210544</v>
       </c>
       <c r="R39" t="n">
-        <v>3.073372125605564</v>
+        <v>3.073372125605569</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523857</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.199521685746787</v>
       </c>
       <c r="U39" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564534</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994802</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259018</v>
       </c>
       <c r="I40" t="n">
-        <v>1.248004425047526</v>
+        <v>1.248004425047528</v>
       </c>
       <c r="J40" t="n">
-        <v>2.93401765828132</v>
+        <v>2.934017658281325</v>
       </c>
       <c r="K40" t="n">
-        <v>4.821492307166679</v>
+        <v>4.821492307166688</v>
       </c>
       <c r="L40" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471365</v>
       </c>
       <c r="M40" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988671</v>
       </c>
       <c r="N40" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847961</v>
       </c>
       <c r="O40" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150838</v>
       </c>
       <c r="P40" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131894</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705194</v>
       </c>
       <c r="R40" t="n">
-        <v>1.865970340473114</v>
+        <v>1.865970340473117</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750031</v>
       </c>
       <c r="T40" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.1773162272588688</v>
       </c>
       <c r="U40" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.00226361141181535</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367576</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887696</v>
       </c>
       <c r="I41" t="n">
-        <v>3.566727381034957</v>
+        <v>3.566727381034963</v>
       </c>
       <c r="J41" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760358</v>
       </c>
       <c r="K41" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324495</v>
       </c>
       <c r="L41" t="n">
-        <v>14.5997362345548</v>
+        <v>14.59973623455483</v>
       </c>
       <c r="M41" t="n">
-        <v>16.24501962895154</v>
+        <v>16.24501962895157</v>
       </c>
       <c r="N41" t="n">
-        <v>16.50788103019311</v>
+        <v>16.50788103019314</v>
       </c>
       <c r="O41" t="n">
-        <v>15.58792394841718</v>
+        <v>15.58792394841721</v>
       </c>
       <c r="P41" t="n">
-        <v>13.30393245060769</v>
+        <v>13.30393245060771</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544822</v>
       </c>
       <c r="R41" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679528</v>
       </c>
       <c r="S41" t="n">
-        <v>2.10821088633251</v>
+        <v>2.108210886332514</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.4049892772318409</v>
       </c>
       <c r="U41" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.00740128890429406</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.0495004835149809</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.4780704592104735</v>
       </c>
       <c r="I42" t="n">
-        <v>1.704292963125436</v>
+        <v>1.704292963125439</v>
       </c>
       <c r="J42" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246507</v>
       </c>
       <c r="K42" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750227</v>
       </c>
       <c r="L42" t="n">
-        <v>10.74790103688213</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M42" t="n">
-        <v>12.54229356430018</v>
+        <v>12.5422935643002</v>
       </c>
       <c r="N42" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418795</v>
       </c>
       <c r="O42" t="n">
-        <v>11.77742425104019</v>
+        <v>11.77742425104021</v>
       </c>
       <c r="P42" t="n">
-        <v>9.452421277522959</v>
+        <v>9.452421277522976</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210544</v>
       </c>
       <c r="R42" t="n">
-        <v>3.073372125605564</v>
+        <v>3.073372125605569</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523857</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.199521685746787</v>
       </c>
       <c r="U42" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564534</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994802</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259018</v>
       </c>
       <c r="I43" t="n">
-        <v>1.248004425047526</v>
+        <v>1.248004425047528</v>
       </c>
       <c r="J43" t="n">
-        <v>2.93401765828132</v>
+        <v>2.934017658281325</v>
       </c>
       <c r="K43" t="n">
-        <v>4.821492307166679</v>
+        <v>4.821492307166688</v>
       </c>
       <c r="L43" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471365</v>
       </c>
       <c r="M43" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988671</v>
       </c>
       <c r="N43" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847961</v>
       </c>
       <c r="O43" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150838</v>
       </c>
       <c r="P43" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131894</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705194</v>
       </c>
       <c r="R43" t="n">
-        <v>1.865970340473114</v>
+        <v>1.865970340473117</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750031</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.1773162272588688</v>
       </c>
       <c r="U43" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.00226361141181535</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367576</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887696</v>
       </c>
       <c r="I44" t="n">
-        <v>3.566727381034957</v>
+        <v>3.566727381034963</v>
       </c>
       <c r="J44" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760358</v>
       </c>
       <c r="K44" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324495</v>
       </c>
       <c r="L44" t="n">
-        <v>14.5997362345548</v>
+        <v>14.59973623455483</v>
       </c>
       <c r="M44" t="n">
-        <v>16.24501962895154</v>
+        <v>16.24501962895157</v>
       </c>
       <c r="N44" t="n">
-        <v>16.50788103019311</v>
+        <v>16.50788103019314</v>
       </c>
       <c r="O44" t="n">
-        <v>15.58792394841718</v>
+        <v>15.58792394841721</v>
       </c>
       <c r="P44" t="n">
-        <v>13.30393245060769</v>
+        <v>13.30393245060771</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544822</v>
       </c>
       <c r="R44" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679528</v>
       </c>
       <c r="S44" t="n">
-        <v>2.10821088633251</v>
+        <v>2.108210886332514</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.4049892772318409</v>
       </c>
       <c r="U44" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.00740128890429406</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.0495004835149809</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.4780704592104735</v>
       </c>
       <c r="I45" t="n">
-        <v>1.704292963125436</v>
+        <v>1.704292963125439</v>
       </c>
       <c r="J45" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246507</v>
       </c>
       <c r="K45" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750227</v>
       </c>
       <c r="L45" t="n">
-        <v>10.74790103688213</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M45" t="n">
-        <v>12.54229356430018</v>
+        <v>12.5422935643002</v>
       </c>
       <c r="N45" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418795</v>
       </c>
       <c r="O45" t="n">
-        <v>11.77742425104019</v>
+        <v>11.77742425104021</v>
       </c>
       <c r="P45" t="n">
-        <v>9.452421277522959</v>
+        <v>9.452421277522976</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210544</v>
       </c>
       <c r="R45" t="n">
-        <v>3.073372125605564</v>
+        <v>3.073372125605569</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523857</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.199521685746787</v>
       </c>
       <c r="U45" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564534</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994802</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259018</v>
       </c>
       <c r="I46" t="n">
-        <v>1.248004425047526</v>
+        <v>1.248004425047528</v>
       </c>
       <c r="J46" t="n">
-        <v>2.93401765828132</v>
+        <v>2.934017658281325</v>
       </c>
       <c r="K46" t="n">
-        <v>4.821492307166679</v>
+        <v>4.821492307166688</v>
       </c>
       <c r="L46" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471365</v>
       </c>
       <c r="M46" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988671</v>
       </c>
       <c r="N46" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847961</v>
       </c>
       <c r="O46" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150838</v>
       </c>
       <c r="P46" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131894</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705194</v>
       </c>
       <c r="R46" t="n">
-        <v>1.865970340473114</v>
+        <v>1.865970340473117</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750031</v>
       </c>
       <c r="T46" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.1773162272588688</v>
       </c>
       <c r="U46" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.00226361141181535</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34705,16 +34707,16 @@
         <v>143.9355595733343</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="N2" t="n">
-        <v>143.9355595733343</v>
+        <v>87.4342670396921</v>
       </c>
       <c r="O2" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.06441988257091</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,16 +34786,16 @@
         <v>143.9355595733343</v>
       </c>
       <c r="M3" t="n">
-        <v>85.33622929404227</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>85.33622929404221</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>87.4342670396921</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>47.55426899254198</v>
       </c>
       <c r="N5" t="n">
         <v>143.9355595733343</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>68.02446775892751</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="N6" t="n">
-        <v>85.33622929404227</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>143.9355595733343</v>
@@ -35179,13 +35181,13 @@
         <v>143.9355595733343</v>
       </c>
       <c r="M8" t="n">
-        <v>143.9355595733343</v>
+        <v>34.06441988257091</v>
       </c>
       <c r="N8" t="n">
         <v>143.9355595733343</v>
       </c>
       <c r="O8" t="n">
-        <v>34.06441988257091</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>68.02446775892751</v>
       </c>
       <c r="M9" t="n">
-        <v>68.02446775892757</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="N9" t="n">
         <v>143.9355595733343</v>
@@ -35267,7 +35269,7 @@
         <v>143.9355595733343</v>
       </c>
       <c r="P9" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>115.8239578194291</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="M11" t="n">
-        <v>143.9355595733343</v>
+        <v>34.25033654193425</v>
       </c>
       <c r="N11" t="n">
         <v>143.9355595733343</v>
       </c>
       <c r="O11" t="n">
-        <v>62.36193829583942</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="P11" t="n">
         <v>103.8696448668208</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>134.6170405889698</v>
+        <v>61.70577445971694</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="M12" t="n">
-        <v>71.02429344408147</v>
-      </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="P12" t="n">
         <v>143.9355595733343</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>115.8239578194291</v>
       </c>
       <c r="L14" t="n">
         <v>143.9355595733343</v>
@@ -35656,10 +35658,10 @@
         <v>143.9355595733343</v>
       </c>
       <c r="N14" t="n">
-        <v>143.9355595733343</v>
+        <v>62.36193829583942</v>
       </c>
       <c r="O14" t="n">
-        <v>34.25033654193428</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>103.8696448668208</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>134.6170405889698</v>
@@ -35732,19 +35734,19 @@
         <v>143.9355595733343</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="N15" t="n">
-        <v>143.5083815641309</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>71.02429344408141</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>224.4417418455864</v>
       </c>
       <c r="O17" t="n">
-        <v>166.2898937894759</v>
+        <v>166.2898937894758</v>
       </c>
       <c r="P17" t="n">
-        <v>103.8696448668208</v>
+        <v>103.8696448668209</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L18" t="n">
         <v>243.0338665604671</v>
@@ -35972,16 +35974,16 @@
         <v>263.2420339516666</v>
       </c>
       <c r="N18" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>263.0434990833253</v>
+        <v>127.1540446485814</v>
       </c>
       <c r="P18" t="n">
-        <v>5.840541654727375</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>196.494535815018</v>
       </c>
       <c r="M20" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945114</v>
       </c>
       <c r="N20" t="n">
         <v>224.4417418455864</v>
@@ -36206,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.7614527146931</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N21" t="n">
         <v>263.2420339516666</v>
@@ -36215,7 +36217,7 @@
         <v>263.0434990833253</v>
       </c>
       <c r="P21" t="n">
-        <v>193.9407825031299</v>
+        <v>172.4602012661562</v>
       </c>
       <c r="Q21" t="n">
         <v>76.41420694903812</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>58.86374454105319</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M24" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="N24" t="n">
-        <v>263.2420339516666</v>
+        <v>79.07191193225269</v>
       </c>
       <c r="O24" t="n">
         <v>263.0434990833253</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>134.6170405889698</v>
@@ -36680,16 +36682,16 @@
         <v>243.0338665604671</v>
       </c>
       <c r="M27" t="n">
-        <v>263.2420339516666</v>
+        <v>131.2826983459113</v>
       </c>
       <c r="N27" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.85279320004458</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q27" t="n">
         <v>76.41420694903812</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M30" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="N30" t="n">
-        <v>245.6915715436817</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O30" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P30" t="n">
-        <v>193.9407825031299</v>
+        <v>5.840541654727375</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>134.6170405889698</v>
       </c>
       <c r="L33" t="n">
-        <v>243.0338665604671</v>
+        <v>183.5586190747613</v>
       </c>
       <c r="M33" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="O33" t="n">
-        <v>134.2670001490827</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>134.6170405889698</v>
       </c>
       <c r="L36" t="n">
-        <v>183.5586190747613</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M36" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O36" t="n">
-        <v>263.0434990833253</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>193.9407825031299</v>
+        <v>138.1971189780713</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>115.8239578194291</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L38" t="n">
         <v>196.494535815018</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.930118828988642</v>
+        <v>3.93011882898865</v>
       </c>
       <c r="K39" t="n">
-        <v>134.6170405889698</v>
+        <v>5.840541654727242</v>
       </c>
       <c r="L39" t="n">
         <v>243.0338665604671</v>
       </c>
       <c r="M39" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="N39" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="O39" t="n">
-        <v>134.2670001490827</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37704,19 +37706,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>33.75987543178749</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M40" t="n">
         <v>46.08911889082925</v>
       </c>
       <c r="N40" t="n">
-        <v>50.48273419507654</v>
+        <v>50.48273419507655</v>
       </c>
       <c r="O40" t="n">
-        <v>30.4508996191905</v>
+        <v>30.45089961919051</v>
       </c>
       <c r="P40" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025382</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>115.8239578194291</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="M41" t="n">
         <v>143.9355595733343</v>
       </c>
       <c r="N41" t="n">
-        <v>143.9355595733343</v>
+        <v>62.36193829583954</v>
       </c>
       <c r="O41" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>22.29602358932591</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3.930118828988642</v>
+        <v>3.93011882898865</v>
       </c>
       <c r="K42" t="n">
-        <v>134.1898625797664</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>143.508381564131</v>
+      </c>
+      <c r="N42" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>143.9355595733343</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>143.9355595733343</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,19 +37943,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>33.75987543178749</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M43" t="n">
         <v>46.08911889082925</v>
       </c>
       <c r="N43" t="n">
-        <v>50.48273419507654</v>
+        <v>50.48273419507655</v>
       </c>
       <c r="O43" t="n">
-        <v>30.4508996191905</v>
+        <v>30.45089961919051</v>
       </c>
       <c r="P43" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025382</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>115.8239578194291</v>
+        <v>34.2503365419343</v>
       </c>
       <c r="L44" t="n">
         <v>143.9355595733343</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
       <c r="O44" t="n">
-        <v>62.36193829583942</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="P44" t="n">
         <v>103.8696448668208</v>
@@ -38099,22 +38101,22 @@
         <v>134.6170405889698</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
         <v>143.9355595733343</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
       <c r="N45" t="n">
-        <v>3.502940819785204</v>
+        <v>143.9355595733343</v>
       </c>
       <c r="O45" t="n">
         <v>143.9355595733343</v>
       </c>
       <c r="P45" t="n">
-        <v>143.9355595733343</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>3.502940819785318</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>33.75987543178749</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M46" t="n">
         <v>46.08911889082925</v>
       </c>
       <c r="N46" t="n">
-        <v>50.48273419507654</v>
+        <v>50.48273419507655</v>
       </c>
       <c r="O46" t="n">
-        <v>30.4508996191905</v>
+        <v>30.45089961919051</v>
       </c>
       <c r="P46" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025382</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
